--- a/capiq_data/in_process_data/IQ269660.xlsx
+++ b/capiq_data/in_process_data/IQ269660.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8BA32A-2735-4F65-99D0-8F6084C15C6D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC1579F-05D7-420E-8B4A-89830D94F3A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"46662dac-482d-41cf-9641-dedbb55fe3ff"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"622ae85d-0757-4dac-90fa-f4113467788d"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +853,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>53.673000000000002</v>
+        <v>161.447</v>
       </c>
       <c r="D2">
-        <v>1681.9670000000001</v>
+        <v>502.41800000000001</v>
       </c>
       <c r="E2">
-        <v>1113.279</v>
+        <v>342.57900000000001</v>
       </c>
       <c r="F2">
-        <v>1080.431</v>
+        <v>462.76900000000001</v>
       </c>
       <c r="G2">
-        <v>2527.4459999999999</v>
+        <v>394.86500000000001</v>
       </c>
       <c r="H2">
-        <v>21624.233</v>
+        <v>3001.2530000000002</v>
       </c>
       <c r="I2">
-        <v>1664.944</v>
+        <v>246.46799999999999</v>
       </c>
       <c r="J2">
-        <v>5003.3410000000003</v>
+        <v>859</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,37 +892,37 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2220.0990000000002</v>
+        <v>370.11599999999999</v>
       </c>
       <c r="O2">
-        <v>11392.601000000001</v>
+        <v>1620.328</v>
       </c>
       <c r="P2">
-        <v>5223.3410000000003</v>
+        <v>859</v>
       </c>
       <c r="Q2">
-        <v>761.02099999999996</v>
+        <v>3.4449999999999998</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>2290</v>
+        <v>850</v>
       </c>
       <c r="T2">
-        <v>10231.632</v>
+        <v>1380.925</v>
       </c>
       <c r="U2">
-        <v>788.85299999999995</v>
+        <v>20.152000000000001</v>
       </c>
       <c r="V2">
-        <v>622.875</v>
+        <v>355.10700000000003</v>
       </c>
       <c r="W2">
-        <v>-38.963000000000001</v>
+        <v>-6.8079999999999998</v>
       </c>
       <c r="X2">
-        <v>1421.692</v>
+        <v>-133.01300000000001</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -811,39 +931,39 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>53.673000000000002</v>
+        <v>161.447</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>133.97300000000001</v>
+        <v>215.24700000000001</v>
       </c>
       <c r="D3">
-        <v>1892.11</v>
+        <v>596.67100000000005</v>
       </c>
       <c r="E3">
-        <v>1228.549</v>
+        <v>286.77800000000002</v>
       </c>
       <c r="F3">
-        <v>1174.7829999999999</v>
+        <v>554.09699999999998</v>
       </c>
       <c r="G3">
-        <v>3597.6030000000001</v>
+        <v>358.91500000000002</v>
       </c>
       <c r="H3">
-        <v>23545.522000000001</v>
+        <v>3012.28</v>
       </c>
       <c r="I3">
-        <v>1838.9590000000001</v>
+        <v>241.40199999999999</v>
       </c>
       <c r="J3">
-        <v>5061.7250000000004</v>
+        <v>644.87099999999998</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -852,40 +972,40 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>-214.12899999999999</v>
       </c>
       <c r="N3">
-        <v>2500.1909999999998</v>
+        <v>406.08100000000002</v>
       </c>
       <c r="O3">
-        <v>11757.143</v>
+        <v>1480.0060000000001</v>
       </c>
       <c r="P3">
-        <v>5281.7250000000004</v>
+        <v>644.87099999999998</v>
       </c>
       <c r="Q3">
-        <v>879.43200000000002</v>
+        <v>10.696999999999999</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>11788.379000000001</v>
+        <v>1532.2739999999999</v>
       </c>
       <c r="U3">
-        <v>1668.2850000000001</v>
+        <v>30.849</v>
       </c>
       <c r="V3">
-        <v>957.48800000000006</v>
+        <v>479.20699999999999</v>
       </c>
       <c r="W3">
-        <v>-39.003</v>
+        <v>-6.7009999999999996</v>
       </c>
       <c r="X3">
-        <v>1349.8109999999999</v>
+        <v>-266.47699999999998</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -894,39 +1014,39 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>133.97300000000001</v>
+        <v>215.24700000000001</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>295.57400000000001</v>
+        <v>136.203</v>
       </c>
       <c r="D4">
-        <v>2216.8580000000002</v>
+        <v>430.67899999999997</v>
       </c>
       <c r="E4">
-        <v>1279.74</v>
+        <v>244.202</v>
       </c>
       <c r="F4">
-        <v>1411.0450000000001</v>
+        <v>387.43099999999998</v>
       </c>
       <c r="G4">
-        <v>3637.95</v>
+        <v>384.577</v>
       </c>
       <c r="H4">
-        <v>23959.379000000001</v>
+        <v>3210.721</v>
       </c>
       <c r="I4">
-        <v>1870.172</v>
+        <v>227.04</v>
       </c>
       <c r="J4">
-        <v>5008.2510000000002</v>
+        <v>640.822</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,37 +1058,37 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2476.2379999999998</v>
+        <v>395.91800000000001</v>
       </c>
       <c r="O4">
-        <v>11882.194</v>
+        <v>1552.135</v>
       </c>
       <c r="P4">
-        <v>5228.2510000000002</v>
+        <v>640.822</v>
       </c>
       <c r="Q4">
-        <v>-90.846999999999994</v>
+        <v>37.445</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>12077.184999999999</v>
+        <v>1658.586</v>
       </c>
       <c r="U4">
-        <v>1577.4380000000001</v>
+        <v>68.293999999999997</v>
       </c>
       <c r="V4">
-        <v>1111.752</v>
+        <v>341.58499999999998</v>
       </c>
       <c r="W4">
-        <v>-42.558999999999997</v>
+        <v>-7.3049999999999997</v>
       </c>
       <c r="X4">
-        <v>-35.008000000000003</v>
+        <v>-26.846</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -977,39 +1097,39 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>295.57400000000001</v>
+        <v>136.203</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>540.87800000000004</v>
+        <v>71.962999999999994</v>
       </c>
       <c r="D5">
-        <v>2320.6120000000001</v>
+        <v>294.97699999999998</v>
       </c>
       <c r="E5">
-        <v>1249.6489999999999</v>
+        <v>206.27</v>
       </c>
       <c r="F5">
-        <v>1371.8720000000001</v>
+        <v>251.33699999999999</v>
       </c>
       <c r="G5">
-        <v>3735.3620000000001</v>
+        <v>336.19200000000001</v>
       </c>
       <c r="H5">
-        <v>24794.678</v>
+        <v>3386.3620000000001</v>
       </c>
       <c r="I5">
-        <v>1926.4549999999999</v>
+        <v>257.68099999999998</v>
       </c>
       <c r="J5">
-        <v>5012.7460000000001</v>
+        <v>701.02200000000005</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,37 +1141,37 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2666.3229999999999</v>
+        <v>382.49799999999999</v>
       </c>
       <c r="O5">
-        <v>12300.83</v>
+        <v>1696.8720000000001</v>
       </c>
       <c r="P5">
-        <v>5232.7460000000001</v>
+        <v>701.02200000000005</v>
       </c>
       <c r="Q5">
-        <v>-190.71</v>
+        <v>-56.95</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>12493.848</v>
+        <v>1689.49</v>
       </c>
       <c r="U5">
-        <v>1386.7280000000001</v>
+        <v>11.343999999999999</v>
       </c>
       <c r="V5">
-        <v>1272.2829999999999</v>
+        <v>232.65</v>
       </c>
       <c r="W5">
-        <v>-42.570999999999998</v>
+        <v>-7.3</v>
       </c>
       <c r="X5">
-        <v>-44.850999999999999</v>
+        <v>34.843000000000004</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1060,39 +1180,39 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>540.87800000000004</v>
+        <v>71.962999999999994</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>120.69799999999999</v>
+        <v>-24.797000000000001</v>
       </c>
       <c r="D6">
-        <v>2577.5729999999999</v>
+        <v>233.875</v>
       </c>
       <c r="E6">
-        <v>1451.2270000000001</v>
+        <v>194.624</v>
       </c>
       <c r="F6">
-        <v>1524.3130000000001</v>
+        <v>187.89099999999999</v>
       </c>
       <c r="G6">
-        <v>3253.9380000000001</v>
+        <v>272.42099999999999</v>
       </c>
       <c r="H6">
-        <v>24838.796999999999</v>
+        <v>3414.0439999999999</v>
       </c>
       <c r="I6">
-        <v>2033.615</v>
+        <v>219.56100000000001</v>
       </c>
       <c r="J6">
-        <v>5012.1660000000002</v>
+        <v>855.96900000000005</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,37 +1224,37 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2522.319</v>
+        <v>310.84699999999998</v>
       </c>
       <c r="O6">
-        <v>12197.893</v>
+        <v>1771.3579999999999</v>
       </c>
       <c r="P6">
-        <v>5012.1660000000002</v>
+        <v>855.96900000000005</v>
       </c>
       <c r="Q6">
-        <v>-771.00199999999995</v>
+        <v>-8.8320000000000007</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>2550</v>
+        <v>960</v>
       </c>
       <c r="T6">
-        <v>12640.904</v>
+        <v>1642.6859999999999</v>
       </c>
       <c r="U6">
-        <v>615.726</v>
+        <v>2.512</v>
       </c>
       <c r="V6">
-        <v>1236.8869999999999</v>
+        <v>143.98500000000001</v>
       </c>
       <c r="W6">
-        <v>-43.036000000000001</v>
+        <v>-7.274</v>
       </c>
       <c r="X6">
-        <v>-261.41300000000001</v>
+        <v>131.46799999999999</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1143,39 +1263,39 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>120.69799999999999</v>
+        <v>-24.797000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>324.00900000000001</v>
+        <v>-24.241</v>
       </c>
       <c r="D7">
-        <v>2604.9749999999999</v>
+        <v>223.35900000000001</v>
       </c>
       <c r="E7">
-        <v>1543.491</v>
+        <v>185.518</v>
       </c>
       <c r="F7">
-        <v>1480.578</v>
+        <v>182.768</v>
       </c>
       <c r="G7">
-        <v>3042.0329999999999</v>
+        <v>266.21800000000002</v>
       </c>
       <c r="H7">
-        <v>25555.536</v>
+        <v>3479.5230000000001</v>
       </c>
       <c r="I7">
-        <v>2289.9029999999998</v>
+        <v>166.958</v>
       </c>
       <c r="J7">
-        <v>5014.5230000000001</v>
+        <v>975.66200000000003</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1187,37 +1307,37 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2772.3470000000002</v>
+        <v>261.64</v>
       </c>
       <c r="O7">
-        <v>12563.692999999999</v>
+        <v>1854.4090000000001</v>
       </c>
       <c r="P7">
-        <v>5014.5230000000001</v>
+        <v>975.66200000000003</v>
       </c>
       <c r="Q7">
-        <v>-321.66199999999998</v>
+        <v>2.891</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>12991.843000000001</v>
+        <v>1625.114</v>
       </c>
       <c r="U7">
-        <v>294.06400000000002</v>
+        <v>5.4029999999999996</v>
       </c>
       <c r="V7">
-        <v>1077.605</v>
+        <v>121.444</v>
       </c>
       <c r="W7">
-        <v>-43.25</v>
+        <v>-7.282</v>
       </c>
       <c r="X7">
-        <v>-26.885000000000002</v>
+        <v>122.354</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1226,39 +1346,39 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>324.00900000000001</v>
+        <v>-24.241</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>395.77800000000002</v>
+        <v>38.107999999999997</v>
       </c>
       <c r="D8">
-        <v>2607.58</v>
+        <v>287.90699999999998</v>
       </c>
       <c r="E8">
-        <v>1375.0920000000001</v>
+        <v>204.34200000000001</v>
       </c>
       <c r="F8">
-        <v>1506.7249999999999</v>
+        <v>244.26900000000001</v>
       </c>
       <c r="G8">
-        <v>2948.058</v>
+        <v>275.988</v>
       </c>
       <c r="H8">
-        <v>25998.577000000001</v>
+        <v>3589.598</v>
       </c>
       <c r="I8">
-        <v>2235.6370000000002</v>
+        <v>167.92099999999999</v>
       </c>
       <c r="J8">
-        <v>5015.893</v>
+        <v>1035.8430000000001</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,37 +1390,37 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2679.94</v>
+        <v>233.73400000000001</v>
       </c>
       <c r="O8">
-        <v>12643.436</v>
+        <v>1903.943</v>
       </c>
       <c r="P8">
-        <v>5015.893</v>
+        <v>1035.8430000000001</v>
       </c>
       <c r="Q8">
-        <v>-13.69</v>
+        <v>3.8029999999999999</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>13355.141</v>
+        <v>1685.655</v>
       </c>
       <c r="U8">
-        <v>280.37400000000002</v>
+        <v>9.2059999999999995</v>
       </c>
       <c r="V8">
-        <v>1495.6130000000001</v>
+        <v>152.64699999999999</v>
       </c>
       <c r="W8">
-        <v>-45.642000000000003</v>
+        <v>-7.2949999999999999</v>
       </c>
       <c r="X8">
-        <v>-29.861999999999998</v>
+        <v>54.16</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1309,39 +1429,39 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>395.77800000000002</v>
+        <v>38.107999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>355.49099999999999</v>
+        <v>28.887</v>
       </c>
       <c r="D9">
-        <v>2882.808</v>
+        <v>286.13900000000001</v>
       </c>
       <c r="E9">
-        <v>1579.8409999999999</v>
+        <v>196.78200000000001</v>
       </c>
       <c r="F9">
-        <v>1683.269</v>
+        <v>240.41200000000001</v>
       </c>
       <c r="G9">
-        <v>4000.1619999999998</v>
+        <v>313.37900000000002</v>
       </c>
       <c r="H9">
-        <v>28032.491000000002</v>
+        <v>3692.9569999999999</v>
       </c>
       <c r="I9">
-        <v>2151.0929999999998</v>
+        <v>176.858</v>
       </c>
       <c r="J9">
-        <v>6250.277</v>
+        <v>1090.8679999999999</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,78 +1473,78 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2578.3829999999998</v>
+        <v>268.78199999999998</v>
       </c>
       <c r="O9">
-        <v>14239.021000000001</v>
+        <v>2027.1179999999999</v>
       </c>
       <c r="P9">
-        <v>6316.277</v>
+        <v>1090.8679999999999</v>
       </c>
       <c r="Q9">
-        <v>832.24900000000002</v>
+        <v>-1.4239999999999999</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>13793.47</v>
+        <v>1665.8389999999999</v>
       </c>
       <c r="U9">
-        <v>1112.623</v>
+        <v>7.782</v>
       </c>
       <c r="V9">
-        <v>1436.3720000000001</v>
+        <v>188.94</v>
       </c>
       <c r="W9">
-        <v>-45.52</v>
+        <v>-7.3010000000000002</v>
       </c>
       <c r="X9">
-        <v>1217.5820000000001</v>
+        <v>23.882000000000001</v>
       </c>
       <c r="Y9">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="Z9">
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>355.49099999999999</v>
+        <v>28.887</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>-504.99900000000002</v>
+        <v>44.418999999999997</v>
       </c>
       <c r="D10">
-        <v>3000.8690000000001</v>
+        <v>345.03300000000002</v>
       </c>
       <c r="E10">
-        <v>1656.6179999999999</v>
+        <v>259.30799999999999</v>
       </c>
       <c r="F10">
-        <v>1690.7380000000001</v>
+        <v>295.56</v>
       </c>
       <c r="G10">
-        <v>3589.884</v>
+        <v>394.35399999999998</v>
       </c>
       <c r="H10">
-        <v>27336.578000000001</v>
+        <v>3813.5680000000002</v>
       </c>
       <c r="I10">
-        <v>2078.9479999999999</v>
+        <v>201.93100000000001</v>
       </c>
       <c r="J10">
-        <v>5909.6019999999999</v>
+        <v>1145.1320000000001</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,37 +1556,37 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2924.058</v>
+        <v>315.54700000000003</v>
       </c>
       <c r="O10">
-        <v>14051.814</v>
+        <v>2141.1729999999998</v>
       </c>
       <c r="P10">
-        <v>6316.1809999999996</v>
+        <v>1145.1320000000001</v>
       </c>
       <c r="Q10">
-        <v>-236.18799999999999</v>
+        <v>2.0659999999999998</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>2650</v>
+        <v>1000</v>
       </c>
       <c r="T10">
-        <v>13284.763999999999</v>
+        <v>1672.395</v>
       </c>
       <c r="U10">
-        <v>876.43499999999995</v>
+        <v>9.8480000000000008</v>
       </c>
       <c r="V10">
-        <v>1227.1869999999999</v>
+        <v>205.53899999999999</v>
       </c>
       <c r="W10">
-        <v>-46.667999999999999</v>
+        <v>-7.274</v>
       </c>
       <c r="X10">
-        <v>-21.084</v>
+        <v>10.907999999999999</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1475,39 +1595,39 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>-504.99900000000002</v>
+        <v>44.418999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>494.72500000000002</v>
+        <v>129.42500000000001</v>
       </c>
       <c r="D11">
-        <v>3297.2370000000001</v>
+        <v>509.59899999999999</v>
       </c>
       <c r="E11">
-        <v>1891.202</v>
+        <v>370.38400000000001</v>
       </c>
       <c r="F11">
-        <v>1934.827</v>
+        <v>461.26</v>
       </c>
       <c r="G11">
-        <v>4081.018</v>
+        <v>495.21199999999999</v>
       </c>
       <c r="H11">
-        <v>28232.613000000001</v>
+        <v>4070.6550000000002</v>
       </c>
       <c r="I11">
-        <v>2258.232</v>
+        <v>222.756</v>
       </c>
       <c r="J11">
-        <v>5905.9170000000004</v>
+        <v>1044.2080000000001</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1516,40 +1636,40 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-1.427</v>
+        <v>-100.92400000000001</v>
       </c>
       <c r="N11">
-        <v>3074.6909999999998</v>
+        <v>331.29</v>
       </c>
       <c r="O11">
-        <v>14476.304</v>
+        <v>2247.703</v>
       </c>
       <c r="P11">
-        <v>6315.4960000000001</v>
+        <v>1044.2080000000001</v>
       </c>
       <c r="Q11">
-        <v>231.59899999999999</v>
+        <v>-3.0150000000000001</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>13756.308999999999</v>
+        <v>1822.952</v>
       </c>
       <c r="U11">
-        <v>1108.0340000000001</v>
+        <v>6.8330000000000002</v>
       </c>
       <c r="V11">
-        <v>1424.9349999999999</v>
+        <v>290.27100000000002</v>
       </c>
       <c r="W11">
-        <v>-46.22</v>
+        <v>-7.2409999999999997</v>
       </c>
       <c r="X11">
-        <v>-38.722000000000001</v>
+        <v>-121.976</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1558,39 +1678,39 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>494.72500000000002</v>
+        <v>129.42500000000001</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>659.69200000000001</v>
+        <v>108.791</v>
       </c>
       <c r="D12">
-        <v>3635.5419999999999</v>
+        <v>439.11399999999998</v>
       </c>
       <c r="E12">
-        <v>1808.954</v>
+        <v>303.80399999999997</v>
       </c>
       <c r="F12">
-        <v>2150.7759999999998</v>
+        <v>385.49400000000003</v>
       </c>
       <c r="G12">
-        <v>4240.84</v>
+        <v>552.78099999999995</v>
       </c>
       <c r="H12">
-        <v>29077.151999999998</v>
+        <v>4240.3410000000003</v>
       </c>
       <c r="I12">
-        <v>2201.94</v>
+        <v>226.40799999999999</v>
       </c>
       <c r="J12">
-        <v>5906.21</v>
+        <v>1010.822</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,37 +1722,37 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>3020.3029999999999</v>
+        <v>323.12</v>
       </c>
       <c r="O12">
-        <v>14692.526</v>
+        <v>2258.5369999999998</v>
       </c>
       <c r="P12">
-        <v>6314.7889999999998</v>
+        <v>1010.822</v>
       </c>
       <c r="Q12">
-        <v>119.982</v>
+        <v>144.13399999999999</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>14384.626</v>
+        <v>1981.8040000000001</v>
       </c>
       <c r="U12">
-        <v>1228.0160000000001</v>
+        <v>150.96700000000001</v>
       </c>
       <c r="V12">
-        <v>1890.777</v>
+        <v>362.94099999999997</v>
       </c>
       <c r="W12">
-        <v>-50.786000000000001</v>
+        <v>-7.2389999999999999</v>
       </c>
       <c r="X12">
-        <v>-39.320999999999998</v>
+        <v>-33.326000000000001</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1641,39 +1761,39 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>659.69200000000001</v>
+        <v>108.791</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>462.49799999999999</v>
+        <v>117.419</v>
       </c>
       <c r="D13">
-        <v>3826.6</v>
+        <v>432.72800000000001</v>
       </c>
       <c r="E13">
-        <v>1849.5170000000001</v>
+        <v>274.834</v>
       </c>
       <c r="F13">
-        <v>2399.759</v>
+        <v>378.29700000000003</v>
       </c>
       <c r="G13">
-        <v>4191.9669999999996</v>
+        <v>557.976</v>
       </c>
       <c r="H13">
-        <v>30147.27</v>
+        <v>4426.0619999999999</v>
       </c>
       <c r="I13">
-        <v>2247.7139999999999</v>
+        <v>252.21100000000001</v>
       </c>
       <c r="J13">
-        <v>5906.4939999999997</v>
+        <v>1010.822</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,37 +1805,37 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>3347.3330000000001</v>
+        <v>353.928</v>
       </c>
       <c r="O13">
-        <v>15285.69</v>
+        <v>2325.6149999999998</v>
       </c>
       <c r="P13">
-        <v>6315.0730000000003</v>
+        <v>1010.822</v>
       </c>
       <c r="Q13">
-        <v>90.801000000000002</v>
+        <v>33.521999999999998</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>14861.58</v>
+        <v>2100.4470000000001</v>
       </c>
       <c r="U13">
-        <v>1318.817</v>
+        <v>184.489</v>
       </c>
       <c r="V13">
-        <v>2012.472</v>
+        <v>361.24</v>
       </c>
       <c r="W13">
-        <v>-50.725000000000001</v>
+        <v>-8.3979999999999997</v>
       </c>
       <c r="X13">
-        <v>-49.228999999999999</v>
+        <v>-7.5609999999999999</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1724,39 +1844,39 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>462.49799999999999</v>
+        <v>117.419</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>580.19399999999996</v>
+        <v>74.510000000000005</v>
       </c>
       <c r="D14">
-        <v>3696.5230000000001</v>
+        <v>438.95299999999997</v>
       </c>
       <c r="E14">
-        <v>1658.8530000000001</v>
+        <v>295.11799999999999</v>
       </c>
       <c r="F14">
-        <v>2254.8069999999998</v>
+        <v>382.74200000000002</v>
       </c>
       <c r="G14">
-        <v>4072.0149999999999</v>
+        <v>396.01400000000001</v>
       </c>
       <c r="H14">
-        <v>30574.238000000001</v>
+        <v>4749.0150000000003</v>
       </c>
       <c r="I14">
-        <v>2254.4180000000001</v>
+        <v>282.37900000000002</v>
       </c>
       <c r="J14">
-        <v>5906.6419999999998</v>
+        <v>1108.8720000000001</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,37 +1888,37 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2861.7159999999999</v>
+        <v>476.51900000000001</v>
       </c>
       <c r="O14">
-        <v>15155.779</v>
+        <v>2525.634</v>
       </c>
       <c r="P14">
-        <v>5914.2209999999995</v>
+        <v>1108.8720000000001</v>
       </c>
       <c r="Q14">
-        <v>-0.60799999999999998</v>
+        <v>-180.04599999999999</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>2800</v>
+        <v>1100</v>
       </c>
       <c r="T14">
-        <v>15418.459000000001</v>
+        <v>2223.3809999999999</v>
       </c>
       <c r="U14">
-        <v>1318.2090000000001</v>
+        <v>4.4429999999999996</v>
       </c>
       <c r="V14">
-        <v>2001.23</v>
+        <v>234.72399999999999</v>
       </c>
       <c r="W14">
-        <v>-51.447000000000003</v>
+        <v>-8.4160000000000004</v>
       </c>
       <c r="X14">
-        <v>-446.654</v>
+        <v>105.667</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -1807,81 +1927,81 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>580.19399999999996</v>
+        <v>74.510000000000005</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>660.928</v>
+        <v>100.85299999999999</v>
       </c>
       <c r="D15">
-        <v>4227.9089999999997</v>
+        <v>507.84699999999998</v>
       </c>
       <c r="E15">
-        <v>1801.665</v>
+        <v>303.56599999999997</v>
       </c>
       <c r="F15">
-        <v>2623.61</v>
+        <v>443.43</v>
       </c>
       <c r="G15">
-        <v>4822.4759999999997</v>
+        <v>503.84399999999999</v>
       </c>
       <c r="H15">
-        <v>32141.288</v>
+        <v>4955.0529999999999</v>
       </c>
       <c r="I15">
-        <v>2647.2089999999998</v>
+        <v>296.45699999999999</v>
       </c>
       <c r="J15">
-        <v>5902.9520000000002</v>
+        <v>1085.8219999999999</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>-98.05</v>
       </c>
       <c r="M15">
-        <v>-501.47399999999999</v>
+        <v>-75</v>
       </c>
       <c r="N15">
-        <v>3395.6419999999998</v>
+        <v>493.024</v>
       </c>
       <c r="O15">
-        <v>16107.974</v>
+        <v>2639.4960000000001</v>
       </c>
       <c r="P15">
-        <v>5909.5309999999999</v>
+        <v>1085.8219999999999</v>
       </c>
       <c r="Q15">
-        <v>349.00299999999999</v>
+        <v>91.274000000000001</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>16033.314</v>
+        <v>2315.5569999999998</v>
       </c>
       <c r="U15">
-        <v>1667.212</v>
+        <v>95.716999999999999</v>
       </c>
       <c r="V15">
-        <v>2267.6729999999998</v>
+        <v>365.44600000000003</v>
       </c>
       <c r="W15">
-        <v>-51.78</v>
+        <v>-8.4610000000000003</v>
       </c>
       <c r="X15">
-        <v>-90.013999999999996</v>
+        <v>-22.472000000000001</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1890,39 +2010,39 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>660.928</v>
+        <v>100.85299999999999</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>706.35299999999995</v>
+        <v>144.93700000000001</v>
       </c>
       <c r="D16">
-        <v>4412.97</v>
+        <v>532.53499999999997</v>
       </c>
       <c r="E16">
-        <v>1902.248</v>
+        <v>355.66199999999998</v>
       </c>
       <c r="F16">
-        <v>2749.9479999999999</v>
+        <v>467.00299999999999</v>
       </c>
       <c r="G16">
-        <v>4724.7449999999999</v>
+        <v>550.42399999999998</v>
       </c>
       <c r="H16">
-        <v>33302.434000000001</v>
+        <v>5126.9660000000003</v>
       </c>
       <c r="I16">
-        <v>2661.473</v>
+        <v>319.53500000000003</v>
       </c>
       <c r="J16">
-        <v>5903.0990000000002</v>
+        <v>1085.8219999999999</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,37 +2054,37 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>3537.4870000000001</v>
+        <v>506.06400000000002</v>
       </c>
       <c r="O16">
-        <v>16594.045999999998</v>
+        <v>2649.0349999999999</v>
       </c>
       <c r="P16">
-        <v>5909.6779999999999</v>
+        <v>1085.8219999999999</v>
       </c>
       <c r="Q16">
-        <v>-437.072</v>
+        <v>-27.878</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>16708.387999999999</v>
+        <v>2477.931</v>
       </c>
       <c r="U16">
-        <v>1230.1400000000001</v>
+        <v>67.838999999999999</v>
       </c>
       <c r="V16">
-        <v>1934.575</v>
+        <v>279.012</v>
       </c>
       <c r="W16">
-        <v>-67.903999999999996</v>
+        <v>-10.496</v>
       </c>
       <c r="X16">
-        <v>-84.183999999999997</v>
+        <v>21.975000000000001</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1973,39 +2093,39 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>706.35299999999995</v>
+        <v>144.93700000000001</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>1103.6179999999999</v>
+        <v>172.31</v>
       </c>
       <c r="D17">
-        <v>4589.1450000000004</v>
+        <v>571.16300000000001</v>
       </c>
       <c r="E17">
-        <v>2009.0909999999999</v>
+        <v>350.17</v>
       </c>
       <c r="F17">
-        <v>2719.4650000000001</v>
+        <v>502.13600000000002</v>
       </c>
       <c r="G17">
-        <v>4884.7160000000003</v>
+        <v>557.67899999999997</v>
       </c>
       <c r="H17">
-        <v>34500.883000000002</v>
+        <v>5424.5969999999998</v>
       </c>
       <c r="I17">
-        <v>2775.3420000000001</v>
+        <v>339.303</v>
       </c>
       <c r="J17">
-        <v>5903.232</v>
+        <v>1062.972</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,37 +2137,37 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>3378.7460000000001</v>
+        <v>524.428</v>
       </c>
       <c r="O17">
-        <v>16780.985000000001</v>
+        <v>2698.6849999999999</v>
       </c>
       <c r="P17">
-        <v>5909.8109999999997</v>
+        <v>1062.972</v>
       </c>
       <c r="Q17">
-        <v>251.005</v>
+        <v>14.069000000000001</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>17719.898000000001</v>
+        <v>2725.9119999999998</v>
       </c>
       <c r="U17">
-        <v>1481.145</v>
+        <v>81.908000000000001</v>
       </c>
       <c r="V17">
-        <v>2336.4690000000001</v>
+        <v>373.416</v>
       </c>
       <c r="W17">
-        <v>-67.986000000000004</v>
+        <v>-8.8840000000000003</v>
       </c>
       <c r="X17">
-        <v>-69.864999999999995</v>
+        <v>-14.62</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -2056,39 +2176,39 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>1103.6179999999999</v>
+        <v>172.31</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>444.58800000000002</v>
+        <v>206.755</v>
       </c>
       <c r="D18">
-        <v>3463.453</v>
+        <v>693.64700000000005</v>
       </c>
       <c r="E18">
-        <v>1779.3109999999999</v>
+        <v>447.74200000000002</v>
       </c>
       <c r="F18">
-        <v>1940.0050000000001</v>
+        <v>621.53700000000003</v>
       </c>
       <c r="G18">
-        <v>5416.0209999999997</v>
+        <v>586.803</v>
       </c>
       <c r="H18">
-        <v>34762.686999999998</v>
+        <v>5798.9229999999998</v>
       </c>
       <c r="I18">
-        <v>2860.5479999999998</v>
+        <v>424.58100000000002</v>
       </c>
       <c r="J18">
-        <v>5858.7120000000004</v>
+        <v>1077.6220000000001</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,78 +2220,78 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>3384.308</v>
+        <v>632.20399999999995</v>
       </c>
       <c r="O18">
-        <v>17050.105</v>
+        <v>2853.4989999999998</v>
       </c>
       <c r="P18">
-        <v>5909.933</v>
+        <v>1077.6220000000001</v>
       </c>
       <c r="Q18">
-        <v>606.06799999999998</v>
+        <v>-60.927999999999997</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>3000</v>
+        <v>1250</v>
       </c>
       <c r="T18">
-        <v>17712.581999999999</v>
+        <v>2945.424</v>
       </c>
       <c r="U18">
-        <v>2087.2130000000002</v>
+        <v>20.98</v>
       </c>
       <c r="V18">
-        <v>2110.4380000000001</v>
+        <v>426.47300000000001</v>
       </c>
       <c r="W18">
-        <v>-92.025000000000006</v>
+        <v>-9.7539999999999996</v>
       </c>
       <c r="X18">
-        <v>-83.671000000000006</v>
+        <v>-28.120999999999999</v>
       </c>
       <c r="Y18">
-        <v>44.642000000000003</v>
+        <v>0</v>
       </c>
       <c r="Z18">
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>444.58800000000002</v>
+        <v>206.755</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>-169.74799999999999</v>
+        <v>202.703</v>
       </c>
       <c r="D19">
-        <v>2240.723</v>
+        <v>687.64200000000005</v>
       </c>
       <c r="E19">
-        <v>1266.5820000000001</v>
+        <v>441.15699999999998</v>
       </c>
       <c r="F19">
-        <v>976.25900000000001</v>
+        <v>604.76700000000005</v>
       </c>
       <c r="G19">
-        <v>4793.3680000000004</v>
+        <v>732.06600000000003</v>
       </c>
       <c r="H19">
-        <v>34692.453999999998</v>
+        <v>6117.0280000000002</v>
       </c>
       <c r="I19">
-        <v>2182.0410000000002</v>
+        <v>400.80200000000002</v>
       </c>
       <c r="J19">
-        <v>6393.69</v>
+        <v>1119.797</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2180,40 +2300,40 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-1.5209999999999999</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>3094.752</v>
+        <v>562.78700000000003</v>
       </c>
       <c r="O19">
-        <v>17221.955999999998</v>
+        <v>2963.386</v>
       </c>
       <c r="P19">
-        <v>6900.2690000000002</v>
+        <v>1119.797</v>
       </c>
       <c r="Q19">
-        <v>40.206000000000003</v>
+        <v>152.405</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>17470.498</v>
+        <v>3153.6419999999998</v>
       </c>
       <c r="U19">
-        <v>2127.4189999999999</v>
+        <v>173.38499999999999</v>
       </c>
       <c r="V19">
-        <v>960.54700000000003</v>
+        <v>481.839</v>
       </c>
       <c r="W19">
-        <v>-91.661000000000001</v>
+        <v>-8.8800000000000008</v>
       </c>
       <c r="X19">
-        <v>892.572</v>
+        <v>47.51</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -2222,39 +2342,39 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>-169.74799999999999</v>
+        <v>202.703</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>5.2679999999999998</v>
+        <v>249.45599999999999</v>
       </c>
       <c r="D20">
-        <v>2523.7579999999998</v>
+        <v>782.87099999999998</v>
       </c>
       <c r="E20">
-        <v>1304.848</v>
+        <v>450.60599999999999</v>
       </c>
       <c r="F20">
-        <v>1319.095</v>
+        <v>696.02</v>
       </c>
       <c r="G20">
-        <v>3737.7179999999998</v>
+        <v>866.505</v>
       </c>
       <c r="H20">
-        <v>33884.095999999998</v>
+        <v>6427.6570000000002</v>
       </c>
       <c r="I20">
-        <v>1864.4829999999999</v>
+        <v>439.53199999999998</v>
       </c>
       <c r="J20">
-        <v>6393.8850000000002</v>
+        <v>1117.097</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,37 +2386,37 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2277.5810000000001</v>
+        <v>604.77200000000005</v>
       </c>
       <c r="O20">
-        <v>16456.852999999999</v>
+        <v>3028.2350000000001</v>
       </c>
       <c r="P20">
-        <v>6400.4639999999999</v>
+        <v>1117.097</v>
       </c>
       <c r="Q20">
-        <v>-760.024</v>
+        <v>109.316</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>17427.242999999999</v>
+        <v>3399.422</v>
       </c>
       <c r="U20">
-        <v>1367.395</v>
+        <v>282.70100000000002</v>
       </c>
       <c r="V20">
-        <v>887.37300000000005</v>
+        <v>503.56599999999997</v>
       </c>
       <c r="W20">
-        <v>-91.468999999999994</v>
+        <v>-11.34</v>
       </c>
       <c r="X20">
-        <v>-585.49900000000002</v>
+        <v>-3.7749999999999999</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2305,42 +2425,42 @@
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>5.2679999999999998</v>
+        <v>249.45599999999999</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>-4075.739</v>
+        <v>343.76100000000002</v>
       </c>
       <c r="D21">
-        <v>2144.3739999999998</v>
+        <v>932.98</v>
       </c>
       <c r="E21">
-        <v>1123.1110000000001</v>
+        <v>631.32000000000005</v>
       </c>
       <c r="F21">
-        <v>1006.759</v>
+        <v>840.97</v>
       </c>
       <c r="G21">
-        <v>2824.9580000000001</v>
+        <v>1144.0119999999999</v>
       </c>
       <c r="H21">
-        <v>27277.246999999999</v>
+        <v>7026.5529999999999</v>
       </c>
       <c r="I21">
-        <v>1561.5740000000001</v>
+        <v>508.815</v>
       </c>
       <c r="J21">
-        <v>6393.9309999999996</v>
+        <v>1042.7719999999999</v>
       </c>
       <c r="K21">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,37 +2469,37 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2046.961</v>
+        <v>773.25800000000004</v>
       </c>
       <c r="O21">
-        <v>13993.023999999999</v>
+        <v>3175.098</v>
       </c>
       <c r="P21">
-        <v>6430.21</v>
+        <v>1042.7719999999999</v>
       </c>
       <c r="Q21">
-        <v>-624.70600000000002</v>
+        <v>58.36</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>13284.223</v>
+        <v>3851.4549999999999</v>
       </c>
       <c r="U21">
-        <v>742.68899999999996</v>
+        <v>341.06099999999998</v>
       </c>
       <c r="V21">
-        <v>1131.432</v>
+        <v>518.80700000000002</v>
       </c>
       <c r="W21">
-        <v>-91.447000000000003</v>
+        <v>-11.355</v>
       </c>
       <c r="X21">
-        <v>-76.37</v>
+        <v>-55.185000000000002</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2388,39 +2508,39 @@
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>-4075.739</v>
+        <v>343.76100000000002</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>-284.29599999999999</v>
+        <v>463.65600000000001</v>
       </c>
       <c r="D22">
-        <v>1795.4469999999999</v>
+        <v>1206.2449999999999</v>
       </c>
       <c r="E22">
-        <v>930.61</v>
+        <v>762.20699999999999</v>
       </c>
       <c r="F22">
-        <v>838.45</v>
+        <v>1094.626</v>
       </c>
       <c r="G22">
-        <v>2592.2440000000001</v>
+        <v>1563.2380000000001</v>
       </c>
       <c r="H22">
-        <v>26970.47</v>
+        <v>7753.32</v>
       </c>
       <c r="I22">
-        <v>1471.953</v>
+        <v>679.548</v>
       </c>
       <c r="J22">
-        <v>6648.9110000000001</v>
+        <v>858.99199999999996</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,37 +2552,37 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1819.287</v>
+        <v>1172.0409999999999</v>
       </c>
       <c r="O22">
-        <v>14027.434999999999</v>
+        <v>3437.0279999999998</v>
       </c>
       <c r="P22">
-        <v>6655.49</v>
+        <v>985.06700000000001</v>
       </c>
       <c r="Q22">
-        <v>-24.183</v>
+        <v>302.75</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>2760</v>
+        <v>1400</v>
       </c>
       <c r="T22">
-        <v>12943.035</v>
+        <v>4316.2920000000004</v>
       </c>
       <c r="U22">
-        <v>718.50599999999997</v>
+        <v>643.81100000000004</v>
       </c>
       <c r="V22">
-        <v>615.81299999999999</v>
+        <v>865.21400000000006</v>
       </c>
       <c r="W22">
-        <v>-92.427999999999997</v>
+        <v>-11.411</v>
       </c>
       <c r="X22">
-        <v>140.21799999999999</v>
+        <v>-60.86</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -2471,81 +2591,81 @@
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>-284.29599999999999</v>
+        <v>463.65600000000001</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>-471.77600000000001</v>
+        <v>426.70699999999999</v>
       </c>
       <c r="D23">
-        <v>1339.7670000000001</v>
+        <v>977.51199999999994</v>
       </c>
       <c r="E23">
-        <v>780.625</v>
+        <v>627.66700000000003</v>
       </c>
       <c r="F23">
-        <v>539.07000000000005</v>
+        <v>861.93200000000002</v>
       </c>
       <c r="G23">
-        <v>2365.8119999999999</v>
+        <v>1664.758</v>
       </c>
       <c r="H23">
-        <v>26338.422999999999</v>
+        <v>8243.39</v>
       </c>
       <c r="I23">
-        <v>1182.0250000000001</v>
+        <v>673.91399999999999</v>
       </c>
       <c r="J23">
-        <v>6979.0290000000005</v>
+        <v>808.66700000000003</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>-259.71800000000002</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>-401.56900000000002</v>
+        <v>-52.325000000000003</v>
       </c>
       <c r="N23">
-        <v>1547.972</v>
+        <v>1067.5250000000001</v>
       </c>
       <c r="O23">
-        <v>13932.934999999999</v>
+        <v>3500.03</v>
       </c>
       <c r="P23">
-        <v>6985.6080000000002</v>
+        <v>932.74199999999996</v>
       </c>
       <c r="Q23">
-        <v>-50.024999999999999</v>
+        <v>177.51599999999999</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>12405.487999999999</v>
+        <v>4743.3599999999997</v>
       </c>
       <c r="U23">
-        <v>668.48099999999999</v>
+        <v>821.327</v>
       </c>
       <c r="V23">
-        <v>291.59100000000001</v>
+        <v>786.76700000000005</v>
       </c>
       <c r="W23">
-        <v>-92.17</v>
+        <v>-11.432</v>
       </c>
       <c r="X23">
-        <v>226.06399999999999</v>
+        <v>-50.552</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -2554,39 +2674,39 @@
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>-471.77600000000001</v>
+        <v>426.70699999999999</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>-292.55799999999999</v>
+        <v>331.41699999999997</v>
       </c>
       <c r="D24">
-        <v>1835.663</v>
+        <v>836.88499999999999</v>
       </c>
       <c r="E24">
-        <v>935.59199999999998</v>
+        <v>597.56399999999996</v>
       </c>
       <c r="F24">
-        <v>928.52700000000004</v>
+        <v>723.68499999999995</v>
       </c>
       <c r="G24">
-        <v>2450.1210000000001</v>
+        <v>1598.71</v>
       </c>
       <c r="H24">
-        <v>25830.538</v>
+        <v>8642.1569999999992</v>
       </c>
       <c r="I24">
-        <v>1305.6510000000001</v>
+        <v>680.57500000000005</v>
       </c>
       <c r="J24">
-        <v>6979.2860000000001</v>
+        <v>768.44200000000001</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,37 +2718,37 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1712.261</v>
+        <v>1082.5170000000001</v>
       </c>
       <c r="O24">
-        <v>13773.837</v>
+        <v>3493.761</v>
       </c>
       <c r="P24">
-        <v>6985.8649999999998</v>
+        <v>892.51700000000005</v>
       </c>
       <c r="Q24">
-        <v>111.241</v>
+        <v>-62.219000000000001</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>12056.700999999999</v>
+        <v>5148.3959999999997</v>
       </c>
       <c r="U24">
-        <v>779.72199999999998</v>
+        <v>759.10799999999995</v>
       </c>
       <c r="V24">
-        <v>503.14600000000002</v>
+        <v>589.66499999999996</v>
       </c>
       <c r="W24">
-        <v>-91.866</v>
+        <v>-16.28</v>
       </c>
       <c r="X24">
-        <v>-89.816999999999993</v>
+        <v>-37.94</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2637,39 +2757,39 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>-292.55799999999999</v>
+        <v>331.41699999999997</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>-190</v>
+        <v>299.13600000000002</v>
       </c>
       <c r="D25">
-        <v>2005.183</v>
+        <v>864.03</v>
       </c>
       <c r="E25">
-        <v>920.18899999999996</v>
+        <v>656.52300000000002</v>
       </c>
       <c r="F25">
-        <v>992.851</v>
+        <v>743.70500000000004</v>
       </c>
       <c r="G25">
-        <v>2737.7640000000001</v>
+        <v>1583.001</v>
       </c>
       <c r="H25">
-        <v>25554.920999999998</v>
+        <v>9165.0159999999996</v>
       </c>
       <c r="I25">
-        <v>1296.24</v>
+        <v>794.58799999999997</v>
       </c>
       <c r="J25">
-        <v>6979.5379999999996</v>
+        <v>705.44200000000001</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,37 +2801,37 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1732.963</v>
+        <v>1258.9680000000001</v>
       </c>
       <c r="O25">
-        <v>13756.609</v>
+        <v>3690.7829999999999</v>
       </c>
       <c r="P25">
-        <v>6986.1170000000002</v>
+        <v>829.51700000000005</v>
       </c>
       <c r="Q25">
-        <v>269.005</v>
+        <v>-163.17699999999999</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>11798.312</v>
+        <v>5474.2330000000002</v>
       </c>
       <c r="U25">
-        <v>1048.7270000000001</v>
+        <v>595.93100000000004</v>
       </c>
       <c r="V25">
-        <v>759.58100000000002</v>
+        <v>603.11599999999999</v>
       </c>
       <c r="W25">
-        <v>-92.69</v>
+        <v>-16.303000000000001</v>
       </c>
       <c r="X25">
-        <v>-108.083</v>
+        <v>-55.097999999999999</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -2720,39 +2840,39 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>-190</v>
+        <v>299.13600000000002</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>-142.352</v>
+        <v>242.625</v>
       </c>
       <c r="D26">
-        <v>2363.7919999999999</v>
+        <v>899.85500000000002</v>
       </c>
       <c r="E26">
-        <v>1216.32</v>
+        <v>754.13400000000001</v>
       </c>
       <c r="F26">
-        <v>1200.8630000000001</v>
+        <v>765.73699999999997</v>
       </c>
       <c r="G26">
-        <v>3385.2159999999999</v>
+        <v>1350.08</v>
       </c>
       <c r="H26">
-        <v>29299.201000000001</v>
+        <v>9402.16</v>
       </c>
       <c r="I26">
-        <v>1511.826</v>
+        <v>896.572</v>
       </c>
       <c r="J26">
-        <v>6979.7790000000005</v>
+        <v>733.44200000000001</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,37 +2884,37 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>2027.2909999999999</v>
+        <v>1255.0119999999999</v>
       </c>
       <c r="O26">
-        <v>15317.62</v>
+        <v>3802.489</v>
       </c>
       <c r="P26">
-        <v>6986.3580000000002</v>
+        <v>733.44200000000001</v>
       </c>
       <c r="Q26">
-        <v>551.16800000000001</v>
+        <v>-377.67599999999999</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>2650</v>
+        <v>1570</v>
       </c>
       <c r="T26">
-        <v>13981.581</v>
+        <v>5599.6710000000003</v>
       </c>
       <c r="U26">
-        <v>1599.895</v>
+        <v>218.255</v>
       </c>
       <c r="V26">
-        <v>804.745</v>
+        <v>599.005</v>
       </c>
       <c r="W26">
-        <v>-96.119</v>
+        <v>-16.428000000000001</v>
       </c>
       <c r="X26">
-        <v>-270.88600000000002</v>
+        <v>-155.292</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -2803,39 +2923,39 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>-142.352</v>
+        <v>242.625</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>28.516999999999999</v>
+        <v>217.667</v>
       </c>
       <c r="D27">
-        <v>2565.3029999999999</v>
+        <v>911.03800000000001</v>
       </c>
       <c r="E27">
-        <v>1187.1120000000001</v>
+        <v>734.23099999999999</v>
       </c>
       <c r="F27">
-        <v>1356.1320000000001</v>
+        <v>774.14599999999996</v>
       </c>
       <c r="G27">
-        <v>3394.076</v>
+        <v>1128.106</v>
       </c>
       <c r="H27">
-        <v>29211.973999999998</v>
+        <v>9826.8539999999994</v>
       </c>
       <c r="I27">
-        <v>1556.875</v>
+        <v>924.64400000000001</v>
       </c>
       <c r="J27">
-        <v>6980.0079999999998</v>
+        <v>820.04200000000003</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2844,40 +2964,40 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-1.619</v>
+        <v>-30</v>
       </c>
       <c r="N27">
-        <v>2032.0070000000001</v>
+        <v>1098.546</v>
       </c>
       <c r="O27">
-        <v>15283.743</v>
+        <v>3981.19</v>
       </c>
       <c r="P27">
-        <v>6986.5870000000004</v>
+        <v>820.04200000000003</v>
       </c>
       <c r="Q27">
-        <v>-53.329000000000001</v>
+        <v>-76.555000000000007</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>13928.231</v>
+        <v>5845.6639999999998</v>
       </c>
       <c r="U27">
-        <v>1546.566</v>
+        <v>141.69999999999999</v>
       </c>
       <c r="V27">
-        <v>898.04899999999998</v>
+        <v>698.48</v>
       </c>
       <c r="W27">
-        <v>-96.706999999999994</v>
+        <v>-15.522</v>
       </c>
       <c r="X27">
-        <v>-114.598</v>
+        <v>83.498000000000005</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -2886,39 +3006,39 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>28.516999999999999</v>
+        <v>217.667</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>23.053000000000001</v>
+        <v>307.053</v>
       </c>
       <c r="D28">
-        <v>2611.942</v>
+        <v>1024.384</v>
       </c>
       <c r="E28">
-        <v>1114.454</v>
+        <v>741.90700000000004</v>
       </c>
       <c r="F28">
-        <v>1345.0550000000001</v>
+        <v>864.22500000000002</v>
       </c>
       <c r="G28">
-        <v>3383.373</v>
+        <v>1063.768</v>
       </c>
       <c r="H28">
-        <v>29263.616999999998</v>
+        <v>10524.263999999999</v>
       </c>
       <c r="I28">
-        <v>1615.17</v>
+        <v>925.82899999999995</v>
       </c>
       <c r="J28">
-        <v>6380.35</v>
+        <v>883.84199999999998</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,37 +3050,37 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>2722.2539999999999</v>
+        <v>1158.5319999999999</v>
       </c>
       <c r="O28">
-        <v>15361.902</v>
+        <v>4231.6750000000002</v>
       </c>
       <c r="P28">
-        <v>6986.8040000000001</v>
+        <v>883.84199999999998</v>
       </c>
       <c r="Q28">
-        <v>102.877</v>
+        <v>-83.165999999999997</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>13901.715</v>
+        <v>6292.5889999999999</v>
       </c>
       <c r="U28">
-        <v>1649.443</v>
+        <v>58.533999999999999</v>
       </c>
       <c r="V28">
-        <v>1078.376</v>
+        <v>728.13599999999997</v>
       </c>
       <c r="W28">
-        <v>-96.277000000000001</v>
+        <v>-22.847999999999999</v>
       </c>
       <c r="X28">
-        <v>-93.706999999999994</v>
+        <v>48.621000000000002</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -2969,39 +3089,39 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>23.053000000000001</v>
+        <v>307.053</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>100.541</v>
+        <v>204.00299999999999</v>
       </c>
       <c r="D29">
-        <v>2659.652</v>
+        <v>942.572</v>
       </c>
       <c r="E29">
-        <v>1243.5350000000001</v>
+        <v>678.76199999999994</v>
       </c>
       <c r="F29">
-        <v>1398.018</v>
+        <v>782.56799999999998</v>
       </c>
       <c r="G29">
-        <v>2763.9630000000002</v>
+        <v>1310.2249999999999</v>
       </c>
       <c r="H29">
-        <v>28805.305</v>
+        <v>11467.707</v>
       </c>
       <c r="I29">
-        <v>1635.711</v>
+        <v>964.51499999999999</v>
       </c>
       <c r="J29">
-        <v>6380.4269999999997</v>
+        <v>1185</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,37 +3133,37 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>2180.0239999999999</v>
+        <v>1341.5530000000001</v>
       </c>
       <c r="O29">
-        <v>14883.040999999999</v>
+        <v>4840.5590000000002</v>
       </c>
       <c r="P29">
-        <v>6387.0060000000003</v>
+        <v>1283.442</v>
       </c>
       <c r="Q29">
-        <v>-803.30499999999995</v>
+        <v>243.41</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>13922.263999999999</v>
+        <v>6627.1480000000001</v>
       </c>
       <c r="U29">
-        <v>846.13800000000003</v>
+        <v>301.94400000000002</v>
       </c>
       <c r="V29">
-        <v>961.36300000000006</v>
+        <v>725.82899999999995</v>
       </c>
       <c r="W29">
-        <v>-96.277000000000001</v>
+        <v>-22.882999999999999</v>
       </c>
       <c r="X29">
-        <v>-725.149</v>
+        <v>384.89600000000002</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -3052,39 +3172,39 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>100.541</v>
+        <v>204.00299999999999</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>2430.4679999999998</v>
+        <v>361.19499999999999</v>
       </c>
       <c r="D30">
-        <v>3450.6909999999998</v>
+        <v>1268.201</v>
       </c>
       <c r="E30">
-        <v>1597.4939999999999</v>
+        <v>835.67</v>
       </c>
       <c r="F30">
-        <v>1924.172</v>
+        <v>1026.5219999999999</v>
       </c>
       <c r="G30">
-        <v>3279.1080000000002</v>
+        <v>1292.039</v>
       </c>
       <c r="H30">
-        <v>29833.078000000001</v>
+        <v>12088.906999999999</v>
       </c>
       <c r="I30">
-        <v>1847.1310000000001</v>
+        <v>1152.1400000000001</v>
       </c>
       <c r="J30">
-        <v>6030.8360000000002</v>
+        <v>1185</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,37 +3216,37 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>2725.5419999999999</v>
+        <v>1474.17</v>
       </c>
       <c r="O30">
-        <v>13549.805</v>
+        <v>5098.8130000000001</v>
       </c>
       <c r="P30">
-        <v>6387.0709999999999</v>
+        <v>1185</v>
       </c>
       <c r="Q30">
-        <v>-11.91</v>
+        <v>-247.71299999999999</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>2664</v>
+        <v>1800</v>
       </c>
       <c r="T30">
-        <v>16283.272999999999</v>
+        <v>6990.0940000000001</v>
       </c>
       <c r="U30">
-        <v>834.22799999999995</v>
+        <v>54.231000000000002</v>
       </c>
       <c r="V30">
-        <v>1327.548</v>
+        <v>748.55799999999999</v>
       </c>
       <c r="W30">
-        <v>-97.27</v>
+        <v>-22.766999999999999</v>
       </c>
       <c r="X30">
-        <v>-102.25700000000001</v>
+        <v>-130.93</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -3135,39 +3255,39 @@
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>2430.4679999999998</v>
+        <v>361.19499999999999</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>638.58900000000006</v>
+        <v>240.95599999999999</v>
       </c>
       <c r="D31">
-        <v>3755.902</v>
+        <v>1475.8620000000001</v>
       </c>
       <c r="E31">
-        <v>1702.1</v>
+        <v>1010.02</v>
       </c>
       <c r="F31">
-        <v>2071.1460000000002</v>
+        <v>1248.384</v>
       </c>
       <c r="G31">
-        <v>3585.0970000000002</v>
+        <v>1690.2460000000001</v>
       </c>
       <c r="H31">
-        <v>30740.517</v>
+        <v>12950.558999999999</v>
       </c>
       <c r="I31">
-        <v>1915.6510000000001</v>
+        <v>1208.751</v>
       </c>
       <c r="J31">
-        <v>6071.6040000000003</v>
+        <v>1185</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3176,40 +3296,40 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-1.671</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>2836.7579999999998</v>
+        <v>1724.9179999999999</v>
       </c>
       <c r="O31">
-        <v>13899.878000000001</v>
+        <v>5760.0379999999996</v>
       </c>
       <c r="P31">
-        <v>6434.759</v>
+        <v>1185</v>
       </c>
       <c r="Q31">
-        <v>-18.134</v>
+        <v>150.70699999999999</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>16840.638999999999</v>
+        <v>7190.5209999999997</v>
       </c>
       <c r="U31">
-        <v>816.09400000000005</v>
+        <v>204.93799999999999</v>
       </c>
       <c r="V31">
-        <v>1552.1659999999999</v>
+        <v>927.08500000000004</v>
       </c>
       <c r="W31">
-        <v>-97.025999999999996</v>
+        <v>-22.088999999999999</v>
       </c>
       <c r="X31">
-        <v>-113.96299999999999</v>
+        <v>31.599</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -3218,39 +3338,39 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>638.58900000000006</v>
+        <v>240.95599999999999</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>696.73099999999999</v>
+        <v>178.20599999999999</v>
       </c>
       <c r="D32">
-        <v>4430.277</v>
+        <v>1938.3340000000001</v>
       </c>
       <c r="E32">
-        <v>1907.99</v>
+        <v>1228.56</v>
       </c>
       <c r="F32">
-        <v>2408.2440000000001</v>
+        <v>1673.375</v>
       </c>
       <c r="G32">
-        <v>4231.8519999999999</v>
+        <v>2088.0970000000002</v>
       </c>
       <c r="H32">
-        <v>32092.38</v>
+        <v>14224.767</v>
       </c>
       <c r="I32">
-        <v>2336.9520000000002</v>
+        <v>1379.6020000000001</v>
       </c>
       <c r="J32">
-        <v>5172.2569999999996</v>
+        <v>1147</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,37 +3382,37 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>4297.3010000000004</v>
+        <v>2445.04</v>
       </c>
       <c r="O32">
-        <v>14639.986000000001</v>
+        <v>6798.5959999999995</v>
       </c>
       <c r="P32">
-        <v>6434.7969999999996</v>
+        <v>1147</v>
       </c>
       <c r="Q32">
-        <v>192.12100000000001</v>
+        <v>-96.837000000000003</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>17452.394</v>
+        <v>7426.1710000000003</v>
       </c>
       <c r="U32">
-        <v>1008.215</v>
+        <v>108.101</v>
       </c>
       <c r="V32">
-        <v>1941.617</v>
+        <v>1135.5360000000001</v>
       </c>
       <c r="W32">
-        <v>-106.584</v>
+        <v>-29.558</v>
       </c>
       <c r="X32">
-        <v>-113.85</v>
+        <v>-29.318000000000001</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -3301,39 +3421,39 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>696.73099999999999</v>
+        <v>178.20599999999999</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>1190.952</v>
+        <v>1556.2850000000001</v>
       </c>
       <c r="D33">
-        <v>4717.7610000000004</v>
+        <v>1882.153</v>
       </c>
       <c r="E33">
-        <v>2151.2469999999998</v>
+        <v>1048.385</v>
       </c>
       <c r="F33">
-        <v>2759.1289999999999</v>
+        <v>1608.2950000000001</v>
       </c>
       <c r="G33">
-        <v>4817.0919999999996</v>
+        <v>2476.5169999999998</v>
       </c>
       <c r="H33">
-        <v>33637.735999999997</v>
+        <v>15832.73</v>
       </c>
       <c r="I33">
-        <v>2435.7730000000001</v>
+        <v>1340.8219999999999</v>
       </c>
       <c r="J33">
-        <v>5171.9489999999996</v>
+        <v>1860</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,37 +3465,37 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>4425.1469999999999</v>
+        <v>1833.08</v>
       </c>
       <c r="O33">
-        <v>15099.266</v>
+        <v>6912.77</v>
       </c>
       <c r="P33">
-        <v>6434.8230000000003</v>
+        <v>1897</v>
       </c>
       <c r="Q33">
-        <v>265.91699999999997</v>
+        <v>777.87599999999998</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>18538.47</v>
+        <v>8919.9599999999991</v>
       </c>
       <c r="U33">
-        <v>1274.1320000000001</v>
+        <v>885.97699999999998</v>
       </c>
       <c r="V33">
-        <v>2189.5970000000002</v>
+        <v>1537.0650000000001</v>
       </c>
       <c r="W33">
-        <v>-107.465</v>
+        <v>-29.806000000000001</v>
       </c>
       <c r="X33">
-        <v>-134.71700000000001</v>
+        <v>742.25099999999998</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -3384,39 +3504,39 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>1190.952</v>
+        <v>1556.2850000000001</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>892.76800000000003</v>
+        <v>461.47199999999998</v>
       </c>
       <c r="D34">
-        <v>4362.5370000000003</v>
+        <v>1109.4100000000001</v>
       </c>
       <c r="E34">
-        <v>1915.2149999999999</v>
+        <v>722.69500000000005</v>
       </c>
       <c r="F34">
-        <v>2354.1880000000001</v>
+        <v>849.03800000000001</v>
       </c>
       <c r="G34">
-        <v>5057.3900000000003</v>
+        <v>2108.451</v>
       </c>
       <c r="H34">
-        <v>33934.474000000002</v>
+        <v>15951.226000000001</v>
       </c>
       <c r="I34">
-        <v>2239.85</v>
+        <v>1122.2090000000001</v>
       </c>
       <c r="J34">
-        <v>5098.598</v>
+        <v>1860</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,78 +3548,78 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>3728.364</v>
+        <v>1764.9159999999999</v>
       </c>
       <c r="O34">
-        <v>14570.286</v>
+        <v>6936.7290000000003</v>
       </c>
       <c r="P34">
-        <v>6083.2619999999997</v>
+        <v>1897</v>
       </c>
       <c r="Q34">
-        <v>281.50200000000001</v>
+        <v>-554.66600000000005</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>2800</v>
+        <v>2100</v>
       </c>
       <c r="T34">
-        <v>19364.187999999998</v>
+        <v>9014.4969999999994</v>
       </c>
       <c r="U34">
-        <v>1555.634</v>
+        <v>331.31099999999998</v>
       </c>
       <c r="V34">
-        <v>2085.2280000000001</v>
+        <v>1033.5630000000001</v>
       </c>
       <c r="W34">
-        <v>-126.97</v>
+        <v>-33.750999999999998</v>
       </c>
       <c r="X34">
-        <v>-476.57299999999998</v>
+        <v>-99.427000000000007</v>
       </c>
       <c r="Y34">
-        <v>71.570999999999998</v>
+        <v>0</v>
       </c>
       <c r="Z34">
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>892.76800000000003</v>
+        <v>461.47199999999998</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>635.42600000000004</v>
+        <v>158.71</v>
       </c>
       <c r="D35">
-        <v>4083.058</v>
+        <v>806.82600000000002</v>
       </c>
       <c r="E35">
-        <v>2203.4380000000001</v>
+        <v>558.11900000000003</v>
       </c>
       <c r="F35">
-        <v>2188.893</v>
+        <v>542.79200000000003</v>
       </c>
       <c r="G35">
-        <v>4907.8850000000002</v>
+        <v>1809.739</v>
       </c>
       <c r="H35">
-        <v>35663.535000000003</v>
+        <v>15983.709000000001</v>
       </c>
       <c r="I35">
-        <v>2452.337</v>
+        <v>774.43399999999997</v>
       </c>
       <c r="J35">
-        <v>5113.05</v>
+        <v>2105.1</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3508,81 +3628,81 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-3.19</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>4301.268</v>
+        <v>1283.297</v>
       </c>
       <c r="O35">
-        <v>15759.737999999999</v>
+        <v>6868.1719999999996</v>
       </c>
       <c r="P35">
-        <v>7006.2049999999999</v>
+        <v>2105.1</v>
       </c>
       <c r="Q35">
-        <v>-419.82400000000001</v>
+        <v>-246.09700000000001</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>19903.796999999999</v>
+        <v>9115.5370000000003</v>
       </c>
       <c r="U35">
-        <v>1135.81</v>
+        <v>85.213999999999999</v>
       </c>
       <c r="V35">
-        <v>1607.769</v>
+        <v>605.83900000000006</v>
       </c>
       <c r="W35">
-        <v>-127.54600000000001</v>
+        <v>-33.491</v>
       </c>
       <c r="X35">
-        <v>-136.58099999999999</v>
+        <v>175.47900000000001</v>
       </c>
       <c r="Y35">
-        <v>582</v>
+        <v>0</v>
       </c>
       <c r="Z35">
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>635.42600000000004</v>
+        <v>158.71</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>847.84100000000001</v>
+        <v>-16.706</v>
       </c>
       <c r="D36">
-        <v>4512.3209999999999</v>
+        <v>827.46900000000005</v>
       </c>
       <c r="E36">
-        <v>2001.953</v>
+        <v>570.26199999999994</v>
       </c>
       <c r="F36">
-        <v>2377.3809999999999</v>
+        <v>539.28800000000001</v>
       </c>
       <c r="G36">
-        <v>4495.5209999999997</v>
+        <v>2210.2759999999998</v>
       </c>
       <c r="H36">
-        <v>35751.500999999997</v>
+        <v>16792.752</v>
       </c>
       <c r="I36">
-        <v>2387.4029999999998</v>
+        <v>720.053</v>
       </c>
       <c r="J36">
-        <v>4116.2839999999997</v>
+        <v>2760</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>4414.0569999999998</v>
+        <v>1189.6199999999999</v>
       </c>
       <c r="O36">
-        <v>15121.225</v>
+        <v>7533.23</v>
       </c>
       <c r="P36">
-        <v>6102.7070000000003</v>
+        <v>2797</v>
       </c>
       <c r="Q36">
-        <v>24.675000000000001</v>
+        <v>621.75</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>20630.276000000002</v>
+        <v>9259.5220000000008</v>
       </c>
       <c r="U36">
-        <v>1160.4849999999999</v>
+        <v>706.96400000000006</v>
       </c>
       <c r="V36">
-        <v>2686.5430000000001</v>
+        <v>671.37900000000002</v>
       </c>
       <c r="W36">
-        <v>-127.13500000000001</v>
+        <v>-36.024999999999999</v>
       </c>
       <c r="X36">
-        <v>-1029.135</v>
+        <v>669.95699999999999</v>
       </c>
       <c r="Y36">
-        <v>576</v>
+        <v>0</v>
       </c>
       <c r="Z36">
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>847.84100000000001</v>
+        <v>-16.706</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>615.12199999999996</v>
+        <v>4.1959999999999997</v>
       </c>
       <c r="D37">
-        <v>4218.076</v>
+        <v>986.20399999999995</v>
       </c>
       <c r="E37">
-        <v>1927.9960000000001</v>
+        <v>604.26</v>
       </c>
       <c r="F37">
-        <v>2198.9859999999999</v>
+        <v>627.91600000000005</v>
       </c>
       <c r="G37">
-        <v>4819.7309999999998</v>
+        <v>1831.6890000000001</v>
       </c>
       <c r="H37">
-        <v>36542.269</v>
+        <v>17221.293000000001</v>
       </c>
       <c r="I37">
-        <v>2395.08</v>
+        <v>783.76400000000001</v>
       </c>
       <c r="J37">
-        <v>4117.1149999999998</v>
+        <v>2760</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3797,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>4473.7129999999997</v>
+        <v>1201.1510000000001</v>
       </c>
       <c r="O37">
-        <v>15417.989</v>
+        <v>7703.5529999999999</v>
       </c>
       <c r="P37">
-        <v>6046.6629999999996</v>
+        <v>2797</v>
       </c>
       <c r="Q37">
-        <v>422.62</v>
+        <v>-98.453000000000003</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>21124.28</v>
+        <v>9517.74</v>
       </c>
       <c r="U37">
-        <v>1583.105</v>
+        <v>608.51099999999997</v>
       </c>
       <c r="V37">
-        <v>2061.6640000000002</v>
+        <v>816.45799999999997</v>
       </c>
       <c r="W37">
-        <v>-166.17</v>
+        <v>-36.472999999999999</v>
       </c>
       <c r="X37">
-        <v>-182.46899999999999</v>
+        <v>-22.771000000000001</v>
       </c>
       <c r="Y37">
-        <v>531</v>
+        <v>0</v>
       </c>
       <c r="Z37">
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>615.12199999999996</v>
+        <v>4.1959999999999997</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>636.52099999999996</v>
+        <v>400.42700000000002</v>
       </c>
       <c r="D38">
-        <v>4262.63</v>
+        <v>1200.009</v>
       </c>
       <c r="E38">
-        <v>2001.6579999999999</v>
+        <v>771.41700000000003</v>
       </c>
       <c r="F38">
-        <v>2354.9059999999999</v>
+        <v>792.88599999999997</v>
       </c>
       <c r="G38">
-        <v>5273.3389999999999</v>
+        <v>1839.5409999999999</v>
       </c>
       <c r="H38">
-        <v>37124.608</v>
+        <v>18118.667000000001</v>
       </c>
       <c r="I38">
-        <v>2429.127</v>
+        <v>979.13900000000001</v>
       </c>
       <c r="J38">
-        <v>4117.9189999999999</v>
+        <v>2760</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3880,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>4486.9880000000003</v>
+        <v>1345.56</v>
       </c>
       <c r="O38">
-        <v>15483.892</v>
+        <v>8120.625</v>
       </c>
       <c r="P38">
-        <v>5974.808</v>
+        <v>2797</v>
       </c>
       <c r="Q38">
-        <v>444.86700000000002</v>
+        <v>77.239999999999995</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>2900</v>
+        <v>2100</v>
       </c>
       <c r="T38">
-        <v>21640.716</v>
+        <v>9998.0419999999995</v>
       </c>
       <c r="U38">
-        <v>2027.972</v>
+        <v>685.75099999999998</v>
       </c>
       <c r="V38">
-        <v>1807.204</v>
+        <v>828.76300000000003</v>
       </c>
       <c r="W38">
-        <v>-167.34899999999999</v>
+        <v>-36.271000000000001</v>
       </c>
       <c r="X38">
-        <v>-165.136</v>
+        <v>11.497</v>
       </c>
       <c r="Y38">
-        <v>473</v>
+        <v>0</v>
       </c>
       <c r="Z38">
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>636.52099999999996</v>
+        <v>400.42700000000002</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>9.8130000000000006</v>
+        <v>118.015</v>
       </c>
       <c r="D39">
-        <v>3495.4589999999998</v>
+        <v>1363.566</v>
       </c>
       <c r="E39">
-        <v>1449.6369999999999</v>
+        <v>869.04200000000003</v>
       </c>
       <c r="F39">
-        <v>1720.029</v>
+        <v>924.43799999999999</v>
       </c>
       <c r="G39">
-        <v>6491.049</v>
+        <v>1545.857</v>
       </c>
       <c r="H39">
-        <v>37634.084000000003</v>
+        <v>18509.067999999999</v>
       </c>
       <c r="I39">
-        <v>2892.32</v>
+        <v>1134.2860000000001</v>
       </c>
       <c r="J39">
-        <v>4703.152</v>
+        <v>2760</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3840,40 +3960,40 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-3.621</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>4305.0110000000004</v>
+        <v>1493.009</v>
       </c>
       <c r="O39">
-        <v>16163.409</v>
+        <v>8344.1509999999998</v>
       </c>
       <c r="P39">
-        <v>5544.5360000000001</v>
+        <v>2797</v>
       </c>
       <c r="Q39">
-        <v>878.88</v>
+        <v>-455.66699999999997</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>21470.674999999999</v>
+        <v>10164.916999999999</v>
       </c>
       <c r="U39">
-        <v>2906.8519999999999</v>
+        <v>230.084</v>
       </c>
       <c r="V39">
-        <v>2584.9180000000001</v>
+        <v>620.28700000000003</v>
       </c>
       <c r="W39">
-        <v>-167.05799999999999</v>
+        <v>-36.289000000000001</v>
       </c>
       <c r="X39">
-        <v>-175.268</v>
+        <v>-36.088999999999999</v>
       </c>
       <c r="Y39">
         <v>0</v>
@@ -3882,39 +4002,39 @@
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>9.8130000000000006</v>
+        <v>118.015</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>-909.38400000000001</v>
+        <v>59.872</v>
       </c>
       <c r="D40">
-        <v>1216.5029999999999</v>
+        <v>1312.646</v>
       </c>
       <c r="E40">
-        <v>943.35400000000004</v>
+        <v>810.14499999999998</v>
       </c>
       <c r="F40">
-        <v>278.21800000000002</v>
+        <v>853.13400000000001</v>
       </c>
       <c r="G40">
-        <v>4597.3909999999996</v>
+        <v>1916.143</v>
       </c>
       <c r="H40">
-        <v>35221.671000000002</v>
+        <v>19465.683000000001</v>
       </c>
       <c r="I40">
-        <v>1281.1659999999999</v>
+        <v>1255.6569999999999</v>
       </c>
       <c r="J40">
-        <v>5703.1409999999996</v>
+        <v>3734.067</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,37 +4046,37 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>2154.3809999999999</v>
+        <v>1558.1369999999999</v>
       </c>
       <c r="O40">
-        <v>14834.114</v>
+        <v>9334.6640000000007</v>
       </c>
       <c r="P40">
-        <v>5976.9040000000005</v>
+        <v>3734.067</v>
       </c>
       <c r="Q40">
-        <v>-490.351</v>
+        <v>420.03</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>20387.557000000001</v>
+        <v>10131.019</v>
       </c>
       <c r="U40">
-        <v>2416.5010000000002</v>
+        <v>650.11400000000003</v>
       </c>
       <c r="V40">
-        <v>88.073999999999998</v>
+        <v>681.053</v>
       </c>
       <c r="W40">
-        <v>-217.042</v>
+        <v>-38.89</v>
       </c>
       <c r="X40">
-        <v>267.49700000000001</v>
+        <v>928.10699999999997</v>
       </c>
       <c r="Y40">
         <v>0</v>
@@ -3965,39 +4085,39 @@
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>-909.38400000000001</v>
+        <v>59.872</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>-42.466999999999999</v>
+        <v>-70.906000000000006</v>
       </c>
       <c r="D41">
-        <v>2320.4380000000001</v>
+        <v>1456.268</v>
       </c>
       <c r="E41">
-        <v>1134.346</v>
+        <v>897.73199999999997</v>
       </c>
       <c r="F41">
-        <v>1276.567</v>
+        <v>921.85500000000002</v>
       </c>
       <c r="G41">
-        <v>5095.0569999999998</v>
+        <v>1534.4449999999999</v>
       </c>
       <c r="H41">
-        <v>35074.017999999996</v>
+        <v>19944.859</v>
       </c>
       <c r="I41">
-        <v>1245.029</v>
+        <v>1541.268</v>
       </c>
       <c r="J41">
-        <v>4949.902</v>
+        <v>3768.6379999999999</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,37 +4129,37 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>3020.0419999999999</v>
+        <v>1938.3</v>
       </c>
       <c r="O41">
-        <v>14925.691999999999</v>
+        <v>9826.7350000000006</v>
       </c>
       <c r="P41">
-        <v>5976.09</v>
+        <v>3768.6379999999999</v>
       </c>
       <c r="Q41">
-        <v>649.05499999999995</v>
+        <v>-622.28200000000004</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>20148.326000000001</v>
+        <v>10118.124</v>
       </c>
       <c r="U41">
-        <v>3065.556</v>
+        <v>27.832000000000001</v>
       </c>
       <c r="V41">
-        <v>1213.5530000000001</v>
+        <v>784.38699999999994</v>
       </c>
       <c r="W41">
-        <v>-217.142</v>
+        <v>-39.097999999999999</v>
       </c>
       <c r="X41">
-        <v>-231.77</v>
+        <v>-10.291</v>
       </c>
       <c r="Y41">
         <v>0</v>
@@ -4048,89 +4168,3409 @@
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>-42.466999999999999</v>
+        <v>-70.906000000000006</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>53.673000000000002</v>
+      </c>
+      <c r="D42">
+        <v>1681.9670000000001</v>
+      </c>
+      <c r="E42">
+        <v>1113.279</v>
+      </c>
+      <c r="F42">
+        <v>1080.431</v>
+      </c>
+      <c r="G42">
+        <v>2527.4459999999999</v>
+      </c>
+      <c r="H42">
+        <v>21624.233</v>
+      </c>
+      <c r="I42">
+        <v>1664.944</v>
+      </c>
+      <c r="J42">
+        <v>5003.3410000000003</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>2220.0990000000002</v>
+      </c>
+      <c r="O42">
+        <v>11392.601000000001</v>
+      </c>
+      <c r="P42">
+        <v>5223.3410000000003</v>
+      </c>
+      <c r="Q42">
+        <v>761.02099999999996</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>2290</v>
+      </c>
+      <c r="T42">
+        <v>10231.632</v>
+      </c>
+      <c r="U42">
+        <v>788.85299999999995</v>
+      </c>
+      <c r="V42">
+        <v>622.875</v>
+      </c>
+      <c r="W42">
+        <v>-38.963000000000001</v>
+      </c>
+      <c r="X42">
+        <v>1421.692</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>53.673000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>133.97300000000001</v>
+      </c>
+      <c r="D43">
+        <v>1892.11</v>
+      </c>
+      <c r="E43">
+        <v>1228.549</v>
+      </c>
+      <c r="F43">
+        <v>1174.7829999999999</v>
+      </c>
+      <c r="G43">
+        <v>3597.6030000000001</v>
+      </c>
+      <c r="H43">
+        <v>23545.522000000001</v>
+      </c>
+      <c r="I43">
+        <v>1838.9590000000001</v>
+      </c>
+      <c r="J43">
+        <v>5061.7250000000004</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>2500.1909999999998</v>
+      </c>
+      <c r="O43">
+        <v>11757.143</v>
+      </c>
+      <c r="P43">
+        <v>5281.7250000000004</v>
+      </c>
+      <c r="Q43">
+        <v>879.43200000000002</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>11788.379000000001</v>
+      </c>
+      <c r="U43">
+        <v>1668.2850000000001</v>
+      </c>
+      <c r="V43">
+        <v>957.48800000000006</v>
+      </c>
+      <c r="W43">
+        <v>-39.003</v>
+      </c>
+      <c r="X43">
+        <v>1349.8109999999999</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>133.97300000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>295.57400000000001</v>
+      </c>
+      <c r="D44">
+        <v>2216.8580000000002</v>
+      </c>
+      <c r="E44">
+        <v>1279.74</v>
+      </c>
+      <c r="F44">
+        <v>1411.0450000000001</v>
+      </c>
+      <c r="G44">
+        <v>3637.95</v>
+      </c>
+      <c r="H44">
+        <v>23959.379000000001</v>
+      </c>
+      <c r="I44">
+        <v>1870.172</v>
+      </c>
+      <c r="J44">
+        <v>5008.2510000000002</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>2476.2379999999998</v>
+      </c>
+      <c r="O44">
+        <v>11882.194</v>
+      </c>
+      <c r="P44">
+        <v>5228.2510000000002</v>
+      </c>
+      <c r="Q44">
+        <v>-90.846999999999994</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>12077.184999999999</v>
+      </c>
+      <c r="U44">
+        <v>1577.4380000000001</v>
+      </c>
+      <c r="V44">
+        <v>1111.752</v>
+      </c>
+      <c r="W44">
+        <v>-42.558999999999997</v>
+      </c>
+      <c r="X44">
+        <v>-35.008000000000003</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>295.57400000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>540.87800000000004</v>
+      </c>
+      <c r="D45">
+        <v>2320.6120000000001</v>
+      </c>
+      <c r="E45">
+        <v>1249.6489999999999</v>
+      </c>
+      <c r="F45">
+        <v>1371.8720000000001</v>
+      </c>
+      <c r="G45">
+        <v>3735.3620000000001</v>
+      </c>
+      <c r="H45">
+        <v>24794.678</v>
+      </c>
+      <c r="I45">
+        <v>1926.4549999999999</v>
+      </c>
+      <c r="J45">
+        <v>5012.7460000000001</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>2666.3229999999999</v>
+      </c>
+      <c r="O45">
+        <v>12300.83</v>
+      </c>
+      <c r="P45">
+        <v>5232.7460000000001</v>
+      </c>
+      <c r="Q45">
+        <v>-190.71</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>12493.848</v>
+      </c>
+      <c r="U45">
+        <v>1386.7280000000001</v>
+      </c>
+      <c r="V45">
+        <v>1272.2829999999999</v>
+      </c>
+      <c r="W45">
+        <v>-42.570999999999998</v>
+      </c>
+      <c r="X45">
+        <v>-44.850999999999999</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>540.87800000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>120.69799999999999</v>
+      </c>
+      <c r="D46">
+        <v>2577.5729999999999</v>
+      </c>
+      <c r="E46">
+        <v>1451.2270000000001</v>
+      </c>
+      <c r="F46">
+        <v>1524.3130000000001</v>
+      </c>
+      <c r="G46">
+        <v>3253.9380000000001</v>
+      </c>
+      <c r="H46">
+        <v>24838.796999999999</v>
+      </c>
+      <c r="I46">
+        <v>2033.615</v>
+      </c>
+      <c r="J46">
+        <v>5012.1660000000002</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>2522.319</v>
+      </c>
+      <c r="O46">
+        <v>12197.893</v>
+      </c>
+      <c r="P46">
+        <v>5012.1660000000002</v>
+      </c>
+      <c r="Q46">
+        <v>-771.00199999999995</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>2550</v>
+      </c>
+      <c r="T46">
+        <v>12640.904</v>
+      </c>
+      <c r="U46">
+        <v>615.726</v>
+      </c>
+      <c r="V46">
+        <v>1236.8869999999999</v>
+      </c>
+      <c r="W46">
+        <v>-43.036000000000001</v>
+      </c>
+      <c r="X46">
+        <v>-261.41300000000001</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>120.69799999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>324.00900000000001</v>
+      </c>
+      <c r="D47">
+        <v>2604.9749999999999</v>
+      </c>
+      <c r="E47">
+        <v>1543.491</v>
+      </c>
+      <c r="F47">
+        <v>1480.578</v>
+      </c>
+      <c r="G47">
+        <v>3042.0329999999999</v>
+      </c>
+      <c r="H47">
+        <v>25555.536</v>
+      </c>
+      <c r="I47">
+        <v>2289.9029999999998</v>
+      </c>
+      <c r="J47">
+        <v>5014.5230000000001</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>2772.3470000000002</v>
+      </c>
+      <c r="O47">
+        <v>12563.692999999999</v>
+      </c>
+      <c r="P47">
+        <v>5014.5230000000001</v>
+      </c>
+      <c r="Q47">
+        <v>-321.66199999999998</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>12991.843000000001</v>
+      </c>
+      <c r="U47">
+        <v>294.06400000000002</v>
+      </c>
+      <c r="V47">
+        <v>1077.605</v>
+      </c>
+      <c r="W47">
+        <v>-43.25</v>
+      </c>
+      <c r="X47">
+        <v>-26.885000000000002</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>324.00900000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>395.77800000000002</v>
+      </c>
+      <c r="D48">
+        <v>2607.58</v>
+      </c>
+      <c r="E48">
+        <v>1375.0920000000001</v>
+      </c>
+      <c r="F48">
+        <v>1506.7249999999999</v>
+      </c>
+      <c r="G48">
+        <v>2948.058</v>
+      </c>
+      <c r="H48">
+        <v>25998.577000000001</v>
+      </c>
+      <c r="I48">
+        <v>2235.6370000000002</v>
+      </c>
+      <c r="J48">
+        <v>5015.893</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>2679.94</v>
+      </c>
+      <c r="O48">
+        <v>12643.436</v>
+      </c>
+      <c r="P48">
+        <v>5015.893</v>
+      </c>
+      <c r="Q48">
+        <v>-13.69</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>13355.141</v>
+      </c>
+      <c r="U48">
+        <v>280.37400000000002</v>
+      </c>
+      <c r="V48">
+        <v>1495.6130000000001</v>
+      </c>
+      <c r="W48">
+        <v>-45.642000000000003</v>
+      </c>
+      <c r="X48">
+        <v>-29.861999999999998</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>395.77800000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>355.49099999999999</v>
+      </c>
+      <c r="D49">
+        <v>2882.808</v>
+      </c>
+      <c r="E49">
+        <v>1579.8409999999999</v>
+      </c>
+      <c r="F49">
+        <v>1683.269</v>
+      </c>
+      <c r="G49">
+        <v>4000.1619999999998</v>
+      </c>
+      <c r="H49">
+        <v>28032.491000000002</v>
+      </c>
+      <c r="I49">
+        <v>2151.0929999999998</v>
+      </c>
+      <c r="J49">
+        <v>6250.277</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>2578.3829999999998</v>
+      </c>
+      <c r="O49">
+        <v>14239.021000000001</v>
+      </c>
+      <c r="P49">
+        <v>6316.277</v>
+      </c>
+      <c r="Q49">
+        <v>832.24900000000002</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>13793.47</v>
+      </c>
+      <c r="U49">
+        <v>1112.623</v>
+      </c>
+      <c r="V49">
+        <v>1436.3720000000001</v>
+      </c>
+      <c r="W49">
+        <v>-45.52</v>
+      </c>
+      <c r="X49">
+        <v>1217.5820000000001</v>
+      </c>
+      <c r="Y49">
+        <v>59</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>355.49099999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>-504.99900000000002</v>
+      </c>
+      <c r="D50">
+        <v>3000.8690000000001</v>
+      </c>
+      <c r="E50">
+        <v>1656.6179999999999</v>
+      </c>
+      <c r="F50">
+        <v>1690.7380000000001</v>
+      </c>
+      <c r="G50">
+        <v>3589.884</v>
+      </c>
+      <c r="H50">
+        <v>27336.578000000001</v>
+      </c>
+      <c r="I50">
+        <v>2078.9479999999999</v>
+      </c>
+      <c r="J50">
+        <v>5909.6019999999999</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>2924.058</v>
+      </c>
+      <c r="O50">
+        <v>14051.814</v>
+      </c>
+      <c r="P50">
+        <v>6316.1809999999996</v>
+      </c>
+      <c r="Q50">
+        <v>-236.18799999999999</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>2650</v>
+      </c>
+      <c r="T50">
+        <v>13284.763999999999</v>
+      </c>
+      <c r="U50">
+        <v>876.43499999999995</v>
+      </c>
+      <c r="V50">
+        <v>1227.1869999999999</v>
+      </c>
+      <c r="W50">
+        <v>-46.667999999999999</v>
+      </c>
+      <c r="X50">
+        <v>-21.084</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>-504.99900000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>494.72500000000002</v>
+      </c>
+      <c r="D51">
+        <v>3297.2370000000001</v>
+      </c>
+      <c r="E51">
+        <v>1891.202</v>
+      </c>
+      <c r="F51">
+        <v>1934.827</v>
+      </c>
+      <c r="G51">
+        <v>4081.018</v>
+      </c>
+      <c r="H51">
+        <v>28232.613000000001</v>
+      </c>
+      <c r="I51">
+        <v>2258.232</v>
+      </c>
+      <c r="J51">
+        <v>5905.9170000000004</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-1.427</v>
+      </c>
+      <c r="N51">
+        <v>3074.6909999999998</v>
+      </c>
+      <c r="O51">
+        <v>14476.304</v>
+      </c>
+      <c r="P51">
+        <v>6315.4960000000001</v>
+      </c>
+      <c r="Q51">
+        <v>231.59899999999999</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>13756.308999999999</v>
+      </c>
+      <c r="U51">
+        <v>1108.0340000000001</v>
+      </c>
+      <c r="V51">
+        <v>1424.9349999999999</v>
+      </c>
+      <c r="W51">
+        <v>-46.22</v>
+      </c>
+      <c r="X51">
+        <v>-38.722000000000001</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>494.72500000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>659.69200000000001</v>
+      </c>
+      <c r="D52">
+        <v>3635.5419999999999</v>
+      </c>
+      <c r="E52">
+        <v>1808.954</v>
+      </c>
+      <c r="F52">
+        <v>2150.7759999999998</v>
+      </c>
+      <c r="G52">
+        <v>4240.84</v>
+      </c>
+      <c r="H52">
+        <v>29077.151999999998</v>
+      </c>
+      <c r="I52">
+        <v>2201.94</v>
+      </c>
+      <c r="J52">
+        <v>5906.21</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>3020.3029999999999</v>
+      </c>
+      <c r="O52">
+        <v>14692.526</v>
+      </c>
+      <c r="P52">
+        <v>6314.7889999999998</v>
+      </c>
+      <c r="Q52">
+        <v>119.982</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>14384.626</v>
+      </c>
+      <c r="U52">
+        <v>1228.0160000000001</v>
+      </c>
+      <c r="V52">
+        <v>1890.777</v>
+      </c>
+      <c r="W52">
+        <v>-50.786000000000001</v>
+      </c>
+      <c r="X52">
+        <v>-39.320999999999998</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>659.69200000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>462.49799999999999</v>
+      </c>
+      <c r="D53">
+        <v>3826.6</v>
+      </c>
+      <c r="E53">
+        <v>1849.5170000000001</v>
+      </c>
+      <c r="F53">
+        <v>2399.759</v>
+      </c>
+      <c r="G53">
+        <v>4191.9669999999996</v>
+      </c>
+      <c r="H53">
+        <v>30147.27</v>
+      </c>
+      <c r="I53">
+        <v>2247.7139999999999</v>
+      </c>
+      <c r="J53">
+        <v>5906.4939999999997</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>3347.3330000000001</v>
+      </c>
+      <c r="O53">
+        <v>15285.69</v>
+      </c>
+      <c r="P53">
+        <v>6315.0730000000003</v>
+      </c>
+      <c r="Q53">
+        <v>90.801000000000002</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>14861.58</v>
+      </c>
+      <c r="U53">
+        <v>1318.817</v>
+      </c>
+      <c r="V53">
+        <v>2012.472</v>
+      </c>
+      <c r="W53">
+        <v>-50.725000000000001</v>
+      </c>
+      <c r="X53">
+        <v>-49.228999999999999</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>462.49799999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>580.19399999999996</v>
+      </c>
+      <c r="D54">
+        <v>3696.5230000000001</v>
+      </c>
+      <c r="E54">
+        <v>1658.8530000000001</v>
+      </c>
+      <c r="F54">
+        <v>2254.8069999999998</v>
+      </c>
+      <c r="G54">
+        <v>4072.0149999999999</v>
+      </c>
+      <c r="H54">
+        <v>30574.238000000001</v>
+      </c>
+      <c r="I54">
+        <v>2254.4180000000001</v>
+      </c>
+      <c r="J54">
+        <v>5906.6419999999998</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>2861.7159999999999</v>
+      </c>
+      <c r="O54">
+        <v>15155.779</v>
+      </c>
+      <c r="P54">
+        <v>5914.2209999999995</v>
+      </c>
+      <c r="Q54">
+        <v>-0.60799999999999998</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>2800</v>
+      </c>
+      <c r="T54">
+        <v>15418.459000000001</v>
+      </c>
+      <c r="U54">
+        <v>1318.2090000000001</v>
+      </c>
+      <c r="V54">
+        <v>2001.23</v>
+      </c>
+      <c r="W54">
+        <v>-51.447000000000003</v>
+      </c>
+      <c r="X54">
+        <v>-446.654</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>580.19399999999996</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>660.928</v>
+      </c>
+      <c r="D55">
+        <v>4227.9089999999997</v>
+      </c>
+      <c r="E55">
+        <v>1801.665</v>
+      </c>
+      <c r="F55">
+        <v>2623.61</v>
+      </c>
+      <c r="G55">
+        <v>4822.4759999999997</v>
+      </c>
+      <c r="H55">
+        <v>32141.288</v>
+      </c>
+      <c r="I55">
+        <v>2647.2089999999998</v>
+      </c>
+      <c r="J55">
+        <v>5902.9520000000002</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-501.47399999999999</v>
+      </c>
+      <c r="N55">
+        <v>3395.6419999999998</v>
+      </c>
+      <c r="O55">
+        <v>16107.974</v>
+      </c>
+      <c r="P55">
+        <v>5909.5309999999999</v>
+      </c>
+      <c r="Q55">
+        <v>349.00299999999999</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>16033.314</v>
+      </c>
+      <c r="U55">
+        <v>1667.212</v>
+      </c>
+      <c r="V55">
+        <v>2267.6729999999998</v>
+      </c>
+      <c r="W55">
+        <v>-51.78</v>
+      </c>
+      <c r="X55">
+        <v>-90.013999999999996</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>660.928</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>706.35299999999995</v>
+      </c>
+      <c r="D56">
+        <v>4412.97</v>
+      </c>
+      <c r="E56">
+        <v>1902.248</v>
+      </c>
+      <c r="F56">
+        <v>2749.9479999999999</v>
+      </c>
+      <c r="G56">
+        <v>4724.7449999999999</v>
+      </c>
+      <c r="H56">
+        <v>33302.434000000001</v>
+      </c>
+      <c r="I56">
+        <v>2661.473</v>
+      </c>
+      <c r="J56">
+        <v>5903.0990000000002</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>3537.4870000000001</v>
+      </c>
+      <c r="O56">
+        <v>16594.045999999998</v>
+      </c>
+      <c r="P56">
+        <v>5909.6779999999999</v>
+      </c>
+      <c r="Q56">
+        <v>-437.072</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>16708.387999999999</v>
+      </c>
+      <c r="U56">
+        <v>1230.1400000000001</v>
+      </c>
+      <c r="V56">
+        <v>1934.575</v>
+      </c>
+      <c r="W56">
+        <v>-67.903999999999996</v>
+      </c>
+      <c r="X56">
+        <v>-84.183999999999997</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>706.35299999999995</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>1103.6179999999999</v>
+      </c>
+      <c r="D57">
+        <v>4589.1450000000004</v>
+      </c>
+      <c r="E57">
+        <v>2009.0909999999999</v>
+      </c>
+      <c r="F57">
+        <v>2719.4650000000001</v>
+      </c>
+      <c r="G57">
+        <v>4884.7160000000003</v>
+      </c>
+      <c r="H57">
+        <v>34500.883000000002</v>
+      </c>
+      <c r="I57">
+        <v>2775.3420000000001</v>
+      </c>
+      <c r="J57">
+        <v>5903.232</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>3378.7460000000001</v>
+      </c>
+      <c r="O57">
+        <v>16780.985000000001</v>
+      </c>
+      <c r="P57">
+        <v>5909.8109999999997</v>
+      </c>
+      <c r="Q57">
+        <v>251.005</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>17719.898000000001</v>
+      </c>
+      <c r="U57">
+        <v>1481.145</v>
+      </c>
+      <c r="V57">
+        <v>2336.4690000000001</v>
+      </c>
+      <c r="W57">
+        <v>-67.986000000000004</v>
+      </c>
+      <c r="X57">
+        <v>-69.864999999999995</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>1103.6179999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>444.58800000000002</v>
+      </c>
+      <c r="D58">
+        <v>3463.453</v>
+      </c>
+      <c r="E58">
+        <v>1779.3109999999999</v>
+      </c>
+      <c r="F58">
+        <v>1940.0050000000001</v>
+      </c>
+      <c r="G58">
+        <v>5416.0209999999997</v>
+      </c>
+      <c r="H58">
+        <v>34762.686999999998</v>
+      </c>
+      <c r="I58">
+        <v>2860.5479999999998</v>
+      </c>
+      <c r="J58">
+        <v>5858.7120000000004</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>3384.308</v>
+      </c>
+      <c r="O58">
+        <v>17050.105</v>
+      </c>
+      <c r="P58">
+        <v>5909.933</v>
+      </c>
+      <c r="Q58">
+        <v>606.06799999999998</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>3000</v>
+      </c>
+      <c r="T58">
+        <v>17712.581999999999</v>
+      </c>
+      <c r="U58">
+        <v>2087.2130000000002</v>
+      </c>
+      <c r="V58">
+        <v>2110.4380000000001</v>
+      </c>
+      <c r="W58">
+        <v>-92.025000000000006</v>
+      </c>
+      <c r="X58">
+        <v>-83.671000000000006</v>
+      </c>
+      <c r="Y58">
+        <v>44.642000000000003</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>444.58800000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>-169.74799999999999</v>
+      </c>
+      <c r="D59">
+        <v>2240.723</v>
+      </c>
+      <c r="E59">
+        <v>1266.5820000000001</v>
+      </c>
+      <c r="F59">
+        <v>976.25900000000001</v>
+      </c>
+      <c r="G59">
+        <v>4793.3680000000004</v>
+      </c>
+      <c r="H59">
+        <v>34692.453999999998</v>
+      </c>
+      <c r="I59">
+        <v>2182.0410000000002</v>
+      </c>
+      <c r="J59">
+        <v>6393.69</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-1.5209999999999999</v>
+      </c>
+      <c r="N59">
+        <v>3094.752</v>
+      </c>
+      <c r="O59">
+        <v>17221.955999999998</v>
+      </c>
+      <c r="P59">
+        <v>6900.2690000000002</v>
+      </c>
+      <c r="Q59">
+        <v>40.206000000000003</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>17470.498</v>
+      </c>
+      <c r="U59">
+        <v>2127.4189999999999</v>
+      </c>
+      <c r="V59">
+        <v>960.54700000000003</v>
+      </c>
+      <c r="W59">
+        <v>-91.661000000000001</v>
+      </c>
+      <c r="X59">
+        <v>892.572</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>-169.74799999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>5.2679999999999998</v>
+      </c>
+      <c r="D60">
+        <v>2523.7579999999998</v>
+      </c>
+      <c r="E60">
+        <v>1304.848</v>
+      </c>
+      <c r="F60">
+        <v>1319.095</v>
+      </c>
+      <c r="G60">
+        <v>3737.7179999999998</v>
+      </c>
+      <c r="H60">
+        <v>33884.095999999998</v>
+      </c>
+      <c r="I60">
+        <v>1864.4829999999999</v>
+      </c>
+      <c r="J60">
+        <v>6393.8850000000002</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>2277.5810000000001</v>
+      </c>
+      <c r="O60">
+        <v>16456.852999999999</v>
+      </c>
+      <c r="P60">
+        <v>6400.4639999999999</v>
+      </c>
+      <c r="Q60">
+        <v>-760.024</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>17427.242999999999</v>
+      </c>
+      <c r="U60">
+        <v>1367.395</v>
+      </c>
+      <c r="V60">
+        <v>887.37300000000005</v>
+      </c>
+      <c r="W60">
+        <v>-91.468999999999994</v>
+      </c>
+      <c r="X60">
+        <v>-585.49900000000002</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>5.2679999999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>-4075.739</v>
+      </c>
+      <c r="D61">
+        <v>2144.3739999999998</v>
+      </c>
+      <c r="E61">
+        <v>1123.1110000000001</v>
+      </c>
+      <c r="F61">
+        <v>1006.759</v>
+      </c>
+      <c r="G61">
+        <v>2824.9580000000001</v>
+      </c>
+      <c r="H61">
+        <v>27277.246999999999</v>
+      </c>
+      <c r="I61">
+        <v>1561.5740000000001</v>
+      </c>
+      <c r="J61">
+        <v>6393.9309999999996</v>
+      </c>
+      <c r="K61">
+        <v>30</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>2046.961</v>
+      </c>
+      <c r="O61">
+        <v>13993.023999999999</v>
+      </c>
+      <c r="P61">
+        <v>6430.21</v>
+      </c>
+      <c r="Q61">
+        <v>-624.70600000000002</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>13284.223</v>
+      </c>
+      <c r="U61">
+        <v>742.68899999999996</v>
+      </c>
+      <c r="V61">
+        <v>1131.432</v>
+      </c>
+      <c r="W61">
+        <v>-91.447000000000003</v>
+      </c>
+      <c r="X61">
+        <v>-76.37</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>-4075.739</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>-284.29599999999999</v>
+      </c>
+      <c r="D62">
+        <v>1795.4469999999999</v>
+      </c>
+      <c r="E62">
+        <v>930.61</v>
+      </c>
+      <c r="F62">
+        <v>838.45</v>
+      </c>
+      <c r="G62">
+        <v>2592.2440000000001</v>
+      </c>
+      <c r="H62">
+        <v>26970.47</v>
+      </c>
+      <c r="I62">
+        <v>1471.953</v>
+      </c>
+      <c r="J62">
+        <v>6648.9110000000001</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>1819.287</v>
+      </c>
+      <c r="O62">
+        <v>14027.434999999999</v>
+      </c>
+      <c r="P62">
+        <v>6655.49</v>
+      </c>
+      <c r="Q62">
+        <v>-24.183</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>2760</v>
+      </c>
+      <c r="T62">
+        <v>12943.035</v>
+      </c>
+      <c r="U62">
+        <v>718.50599999999997</v>
+      </c>
+      <c r="V62">
+        <v>615.81299999999999</v>
+      </c>
+      <c r="W62">
+        <v>-92.427999999999997</v>
+      </c>
+      <c r="X62">
+        <v>140.21799999999999</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>-284.29599999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>-471.77600000000001</v>
+      </c>
+      <c r="D63">
+        <v>1339.7670000000001</v>
+      </c>
+      <c r="E63">
+        <v>780.625</v>
+      </c>
+      <c r="F63">
+        <v>539.07000000000005</v>
+      </c>
+      <c r="G63">
+        <v>2365.8119999999999</v>
+      </c>
+      <c r="H63">
+        <v>26338.422999999999</v>
+      </c>
+      <c r="I63">
+        <v>1182.0250000000001</v>
+      </c>
+      <c r="J63">
+        <v>6979.0290000000005</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>-259.71800000000002</v>
+      </c>
+      <c r="M63">
+        <v>-401.56900000000002</v>
+      </c>
+      <c r="N63">
+        <v>1547.972</v>
+      </c>
+      <c r="O63">
+        <v>13932.934999999999</v>
+      </c>
+      <c r="P63">
+        <v>6985.6080000000002</v>
+      </c>
+      <c r="Q63">
+        <v>-50.024999999999999</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>12405.487999999999</v>
+      </c>
+      <c r="U63">
+        <v>668.48099999999999</v>
+      </c>
+      <c r="V63">
+        <v>291.59100000000001</v>
+      </c>
+      <c r="W63">
+        <v>-92.17</v>
+      </c>
+      <c r="X63">
+        <v>226.06399999999999</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>-471.77600000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>-292.55799999999999</v>
+      </c>
+      <c r="D64">
+        <v>1835.663</v>
+      </c>
+      <c r="E64">
+        <v>935.59199999999998</v>
+      </c>
+      <c r="F64">
+        <v>928.52700000000004</v>
+      </c>
+      <c r="G64">
+        <v>2450.1210000000001</v>
+      </c>
+      <c r="H64">
+        <v>25830.538</v>
+      </c>
+      <c r="I64">
+        <v>1305.6510000000001</v>
+      </c>
+      <c r="J64">
+        <v>6979.2860000000001</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>1712.261</v>
+      </c>
+      <c r="O64">
+        <v>13773.837</v>
+      </c>
+      <c r="P64">
+        <v>6985.8649999999998</v>
+      </c>
+      <c r="Q64">
+        <v>111.241</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>12056.700999999999</v>
+      </c>
+      <c r="U64">
+        <v>779.72199999999998</v>
+      </c>
+      <c r="V64">
+        <v>503.14600000000002</v>
+      </c>
+      <c r="W64">
+        <v>-91.866</v>
+      </c>
+      <c r="X64">
+        <v>-89.816999999999993</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>-292.55799999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>-190</v>
+      </c>
+      <c r="D65">
+        <v>2005.183</v>
+      </c>
+      <c r="E65">
+        <v>920.18899999999996</v>
+      </c>
+      <c r="F65">
+        <v>992.851</v>
+      </c>
+      <c r="G65">
+        <v>2737.7640000000001</v>
+      </c>
+      <c r="H65">
+        <v>25554.920999999998</v>
+      </c>
+      <c r="I65">
+        <v>1296.24</v>
+      </c>
+      <c r="J65">
+        <v>6979.5379999999996</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1732.963</v>
+      </c>
+      <c r="O65">
+        <v>13756.609</v>
+      </c>
+      <c r="P65">
+        <v>6986.1170000000002</v>
+      </c>
+      <c r="Q65">
+        <v>269.005</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>11798.312</v>
+      </c>
+      <c r="U65">
+        <v>1048.7270000000001</v>
+      </c>
+      <c r="V65">
+        <v>759.58100000000002</v>
+      </c>
+      <c r="W65">
+        <v>-92.69</v>
+      </c>
+      <c r="X65">
+        <v>-108.083</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>-190</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>-142.352</v>
+      </c>
+      <c r="D66">
+        <v>2363.7919999999999</v>
+      </c>
+      <c r="E66">
+        <v>1216.32</v>
+      </c>
+      <c r="F66">
+        <v>1200.8630000000001</v>
+      </c>
+      <c r="G66">
+        <v>3385.2159999999999</v>
+      </c>
+      <c r="H66">
+        <v>29299.201000000001</v>
+      </c>
+      <c r="I66">
+        <v>1511.826</v>
+      </c>
+      <c r="J66">
+        <v>6979.7790000000005</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>2027.2909999999999</v>
+      </c>
+      <c r="O66">
+        <v>15317.62</v>
+      </c>
+      <c r="P66">
+        <v>6986.3580000000002</v>
+      </c>
+      <c r="Q66">
+        <v>551.16800000000001</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>2650</v>
+      </c>
+      <c r="T66">
+        <v>13981.581</v>
+      </c>
+      <c r="U66">
+        <v>1599.895</v>
+      </c>
+      <c r="V66">
+        <v>804.745</v>
+      </c>
+      <c r="W66">
+        <v>-96.119</v>
+      </c>
+      <c r="X66">
+        <v>-270.88600000000002</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>-142.352</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>28.516999999999999</v>
+      </c>
+      <c r="D67">
+        <v>2565.3029999999999</v>
+      </c>
+      <c r="E67">
+        <v>1187.1120000000001</v>
+      </c>
+      <c r="F67">
+        <v>1356.1320000000001</v>
+      </c>
+      <c r="G67">
+        <v>3394.076</v>
+      </c>
+      <c r="H67">
+        <v>29211.973999999998</v>
+      </c>
+      <c r="I67">
+        <v>1556.875</v>
+      </c>
+      <c r="J67">
+        <v>6980.0079999999998</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-1.619</v>
+      </c>
+      <c r="N67">
+        <v>2032.0070000000001</v>
+      </c>
+      <c r="O67">
+        <v>15283.743</v>
+      </c>
+      <c r="P67">
+        <v>6986.5870000000004</v>
+      </c>
+      <c r="Q67">
+        <v>-53.329000000000001</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>13928.231</v>
+      </c>
+      <c r="U67">
+        <v>1546.566</v>
+      </c>
+      <c r="V67">
+        <v>898.04899999999998</v>
+      </c>
+      <c r="W67">
+        <v>-96.706999999999994</v>
+      </c>
+      <c r="X67">
+        <v>-114.598</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>28.516999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>23.053000000000001</v>
+      </c>
+      <c r="D68">
+        <v>2611.942</v>
+      </c>
+      <c r="E68">
+        <v>1114.454</v>
+      </c>
+      <c r="F68">
+        <v>1345.0550000000001</v>
+      </c>
+      <c r="G68">
+        <v>3383.373</v>
+      </c>
+      <c r="H68">
+        <v>29263.616999999998</v>
+      </c>
+      <c r="I68">
+        <v>1615.17</v>
+      </c>
+      <c r="J68">
+        <v>6380.35</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>2722.2539999999999</v>
+      </c>
+      <c r="O68">
+        <v>15361.902</v>
+      </c>
+      <c r="P68">
+        <v>6986.8040000000001</v>
+      </c>
+      <c r="Q68">
+        <v>102.877</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>13901.715</v>
+      </c>
+      <c r="U68">
+        <v>1649.443</v>
+      </c>
+      <c r="V68">
+        <v>1078.376</v>
+      </c>
+      <c r="W68">
+        <v>-96.277000000000001</v>
+      </c>
+      <c r="X68">
+        <v>-93.706999999999994</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>23.053000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>100.541</v>
+      </c>
+      <c r="D69">
+        <v>2659.652</v>
+      </c>
+      <c r="E69">
+        <v>1243.5350000000001</v>
+      </c>
+      <c r="F69">
+        <v>1398.018</v>
+      </c>
+      <c r="G69">
+        <v>2763.9630000000002</v>
+      </c>
+      <c r="H69">
+        <v>28805.305</v>
+      </c>
+      <c r="I69">
+        <v>1635.711</v>
+      </c>
+      <c r="J69">
+        <v>6380.4269999999997</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>2180.0239999999999</v>
+      </c>
+      <c r="O69">
+        <v>14883.040999999999</v>
+      </c>
+      <c r="P69">
+        <v>6387.0060000000003</v>
+      </c>
+      <c r="Q69">
+        <v>-803.30499999999995</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>13922.263999999999</v>
+      </c>
+      <c r="U69">
+        <v>846.13800000000003</v>
+      </c>
+      <c r="V69">
+        <v>961.36300000000006</v>
+      </c>
+      <c r="W69">
+        <v>-96.277000000000001</v>
+      </c>
+      <c r="X69">
+        <v>-725.149</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>100.541</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>2430.4679999999998</v>
+      </c>
+      <c r="D70">
+        <v>3450.6909999999998</v>
+      </c>
+      <c r="E70">
+        <v>1597.4939999999999</v>
+      </c>
+      <c r="F70">
+        <v>1924.172</v>
+      </c>
+      <c r="G70">
+        <v>3279.1080000000002</v>
+      </c>
+      <c r="H70">
+        <v>29833.078000000001</v>
+      </c>
+      <c r="I70">
+        <v>1847.1310000000001</v>
+      </c>
+      <c r="J70">
+        <v>6030.8360000000002</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>2725.5419999999999</v>
+      </c>
+      <c r="O70">
+        <v>13549.805</v>
+      </c>
+      <c r="P70">
+        <v>6387.0709999999999</v>
+      </c>
+      <c r="Q70">
+        <v>-11.91</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>2664</v>
+      </c>
+      <c r="T70">
+        <v>16283.272999999999</v>
+      </c>
+      <c r="U70">
+        <v>834.22799999999995</v>
+      </c>
+      <c r="V70">
+        <v>1327.548</v>
+      </c>
+      <c r="W70">
+        <v>-97.27</v>
+      </c>
+      <c r="X70">
+        <v>-102.25700000000001</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>2430.4679999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>638.58900000000006</v>
+      </c>
+      <c r="D71">
+        <v>3755.902</v>
+      </c>
+      <c r="E71">
+        <v>1702.1</v>
+      </c>
+      <c r="F71">
+        <v>2071.1460000000002</v>
+      </c>
+      <c r="G71">
+        <v>3585.0970000000002</v>
+      </c>
+      <c r="H71">
+        <v>30740.517</v>
+      </c>
+      <c r="I71">
+        <v>1915.6510000000001</v>
+      </c>
+      <c r="J71">
+        <v>6071.6040000000003</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-1.671</v>
+      </c>
+      <c r="N71">
+        <v>2836.7579999999998</v>
+      </c>
+      <c r="O71">
+        <v>13899.878000000001</v>
+      </c>
+      <c r="P71">
+        <v>6434.759</v>
+      </c>
+      <c r="Q71">
+        <v>-18.134</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>16840.638999999999</v>
+      </c>
+      <c r="U71">
+        <v>816.09400000000005</v>
+      </c>
+      <c r="V71">
+        <v>1552.1659999999999</v>
+      </c>
+      <c r="W71">
+        <v>-97.025999999999996</v>
+      </c>
+      <c r="X71">
+        <v>-113.96299999999999</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>638.58900000000006</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>696.73099999999999</v>
+      </c>
+      <c r="D72">
+        <v>4430.277</v>
+      </c>
+      <c r="E72">
+        <v>1907.99</v>
+      </c>
+      <c r="F72">
+        <v>2408.2440000000001</v>
+      </c>
+      <c r="G72">
+        <v>4231.8519999999999</v>
+      </c>
+      <c r="H72">
+        <v>32092.38</v>
+      </c>
+      <c r="I72">
+        <v>2336.9520000000002</v>
+      </c>
+      <c r="J72">
+        <v>5172.2569999999996</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>4297.3010000000004</v>
+      </c>
+      <c r="O72">
+        <v>14639.986000000001</v>
+      </c>
+      <c r="P72">
+        <v>6434.7969999999996</v>
+      </c>
+      <c r="Q72">
+        <v>192.12100000000001</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>17452.394</v>
+      </c>
+      <c r="U72">
+        <v>1008.215</v>
+      </c>
+      <c r="V72">
+        <v>1941.617</v>
+      </c>
+      <c r="W72">
+        <v>-106.584</v>
+      </c>
+      <c r="X72">
+        <v>-113.85</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>696.73099999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>1190.952</v>
+      </c>
+      <c r="D73">
+        <v>4717.7610000000004</v>
+      </c>
+      <c r="E73">
+        <v>2151.2469999999998</v>
+      </c>
+      <c r="F73">
+        <v>2759.1289999999999</v>
+      </c>
+      <c r="G73">
+        <v>4817.0919999999996</v>
+      </c>
+      <c r="H73">
+        <v>33637.735999999997</v>
+      </c>
+      <c r="I73">
+        <v>2435.7730000000001</v>
+      </c>
+      <c r="J73">
+        <v>5171.9489999999996</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>4425.1469999999999</v>
+      </c>
+      <c r="O73">
+        <v>15099.266</v>
+      </c>
+      <c r="P73">
+        <v>6434.8230000000003</v>
+      </c>
+      <c r="Q73">
+        <v>265.91699999999997</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>18538.47</v>
+      </c>
+      <c r="U73">
+        <v>1274.1320000000001</v>
+      </c>
+      <c r="V73">
+        <v>2189.5970000000002</v>
+      </c>
+      <c r="W73">
+        <v>-107.465</v>
+      </c>
+      <c r="X73">
+        <v>-134.71700000000001</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>1190.952</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>892.76800000000003</v>
+      </c>
+      <c r="D74">
+        <v>4362.5370000000003</v>
+      </c>
+      <c r="E74">
+        <v>1915.2149999999999</v>
+      </c>
+      <c r="F74">
+        <v>2354.1880000000001</v>
+      </c>
+      <c r="G74">
+        <v>5057.3900000000003</v>
+      </c>
+      <c r="H74">
+        <v>33934.474000000002</v>
+      </c>
+      <c r="I74">
+        <v>2239.85</v>
+      </c>
+      <c r="J74">
+        <v>5098.598</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>3728.364</v>
+      </c>
+      <c r="O74">
+        <v>14570.286</v>
+      </c>
+      <c r="P74">
+        <v>6083.2619999999997</v>
+      </c>
+      <c r="Q74">
+        <v>281.50200000000001</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>2800</v>
+      </c>
+      <c r="T74">
+        <v>19364.187999999998</v>
+      </c>
+      <c r="U74">
+        <v>1555.634</v>
+      </c>
+      <c r="V74">
+        <v>2085.2280000000001</v>
+      </c>
+      <c r="W74">
+        <v>-126.97</v>
+      </c>
+      <c r="X74">
+        <v>-476.57299999999998</v>
+      </c>
+      <c r="Y74">
+        <v>71.570999999999998</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>892.76800000000003</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>635.42600000000004</v>
+      </c>
+      <c r="D75">
+        <v>4083.058</v>
+      </c>
+      <c r="E75">
+        <v>2203.4380000000001</v>
+      </c>
+      <c r="F75">
+        <v>2188.893</v>
+      </c>
+      <c r="G75">
+        <v>4907.8850000000002</v>
+      </c>
+      <c r="H75">
+        <v>35663.535000000003</v>
+      </c>
+      <c r="I75">
+        <v>2452.337</v>
+      </c>
+      <c r="J75">
+        <v>5113.05</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-3.19</v>
+      </c>
+      <c r="N75">
+        <v>4301.268</v>
+      </c>
+      <c r="O75">
+        <v>15759.737999999999</v>
+      </c>
+      <c r="P75">
+        <v>7006.2049999999999</v>
+      </c>
+      <c r="Q75">
+        <v>-419.82400000000001</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>19903.796999999999</v>
+      </c>
+      <c r="U75">
+        <v>1135.81</v>
+      </c>
+      <c r="V75">
+        <v>1607.769</v>
+      </c>
+      <c r="W75">
+        <v>-127.54600000000001</v>
+      </c>
+      <c r="X75">
+        <v>-136.58099999999999</v>
+      </c>
+      <c r="Y75">
+        <v>582</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>635.42600000000004</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>847.84100000000001</v>
+      </c>
+      <c r="D76">
+        <v>4512.3209999999999</v>
+      </c>
+      <c r="E76">
+        <v>2001.953</v>
+      </c>
+      <c r="F76">
+        <v>2377.3809999999999</v>
+      </c>
+      <c r="G76">
+        <v>4495.5209999999997</v>
+      </c>
+      <c r="H76">
+        <v>35751.500999999997</v>
+      </c>
+      <c r="I76">
+        <v>2387.4029999999998</v>
+      </c>
+      <c r="J76">
+        <v>4116.2839999999997</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>4414.0569999999998</v>
+      </c>
+      <c r="O76">
+        <v>15121.225</v>
+      </c>
+      <c r="P76">
+        <v>6102.7070000000003</v>
+      </c>
+      <c r="Q76">
+        <v>24.675000000000001</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>20630.276000000002</v>
+      </c>
+      <c r="U76">
+        <v>1160.4849999999999</v>
+      </c>
+      <c r="V76">
+        <v>2686.5430000000001</v>
+      </c>
+      <c r="W76">
+        <v>-127.13500000000001</v>
+      </c>
+      <c r="X76">
+        <v>-1029.135</v>
+      </c>
+      <c r="Y76">
+        <v>576</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>847.84100000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>615.12199999999996</v>
+      </c>
+      <c r="D77">
+        <v>4218.076</v>
+      </c>
+      <c r="E77">
+        <v>1927.9960000000001</v>
+      </c>
+      <c r="F77">
+        <v>2198.9859999999999</v>
+      </c>
+      <c r="G77">
+        <v>4819.7309999999998</v>
+      </c>
+      <c r="H77">
+        <v>36542.269</v>
+      </c>
+      <c r="I77">
+        <v>2395.08</v>
+      </c>
+      <c r="J77">
+        <v>4117.1149999999998</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>4473.7129999999997</v>
+      </c>
+      <c r="O77">
+        <v>15417.989</v>
+      </c>
+      <c r="P77">
+        <v>6046.6629999999996</v>
+      </c>
+      <c r="Q77">
+        <v>422.62</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>21124.28</v>
+      </c>
+      <c r="U77">
+        <v>1583.105</v>
+      </c>
+      <c r="V77">
+        <v>2061.6640000000002</v>
+      </c>
+      <c r="W77">
+        <v>-166.17</v>
+      </c>
+      <c r="X77">
+        <v>-182.46899999999999</v>
+      </c>
+      <c r="Y77">
+        <v>531</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>615.12199999999996</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>636.52099999999996</v>
+      </c>
+      <c r="D78">
+        <v>4262.63</v>
+      </c>
+      <c r="E78">
+        <v>2001.6579999999999</v>
+      </c>
+      <c r="F78">
+        <v>2354.9059999999999</v>
+      </c>
+      <c r="G78">
+        <v>5273.3389999999999</v>
+      </c>
+      <c r="H78">
+        <v>37124.608</v>
+      </c>
+      <c r="I78">
+        <v>2429.127</v>
+      </c>
+      <c r="J78">
+        <v>4117.9189999999999</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>4486.9880000000003</v>
+      </c>
+      <c r="O78">
+        <v>15483.892</v>
+      </c>
+      <c r="P78">
+        <v>5974.808</v>
+      </c>
+      <c r="Q78">
+        <v>444.86700000000002</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>2900</v>
+      </c>
+      <c r="T78">
+        <v>21640.716</v>
+      </c>
+      <c r="U78">
+        <v>2027.972</v>
+      </c>
+      <c r="V78">
+        <v>1807.204</v>
+      </c>
+      <c r="W78">
+        <v>-167.34899999999999</v>
+      </c>
+      <c r="X78">
+        <v>-165.136</v>
+      </c>
+      <c r="Y78">
+        <v>473</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>636.52099999999996</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>9.8130000000000006</v>
+      </c>
+      <c r="D79">
+        <v>3495.4589999999998</v>
+      </c>
+      <c r="E79">
+        <v>1449.6369999999999</v>
+      </c>
+      <c r="F79">
+        <v>1720.029</v>
+      </c>
+      <c r="G79">
+        <v>6491.049</v>
+      </c>
+      <c r="H79">
+        <v>37634.084000000003</v>
+      </c>
+      <c r="I79">
+        <v>2892.32</v>
+      </c>
+      <c r="J79">
+        <v>4703.152</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-3.621</v>
+      </c>
+      <c r="N79">
+        <v>4305.0110000000004</v>
+      </c>
+      <c r="O79">
+        <v>16163.409</v>
+      </c>
+      <c r="P79">
+        <v>5544.5360000000001</v>
+      </c>
+      <c r="Q79">
+        <v>878.88</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>21470.674999999999</v>
+      </c>
+      <c r="U79">
+        <v>2906.8519999999999</v>
+      </c>
+      <c r="V79">
+        <v>2584.9180000000001</v>
+      </c>
+      <c r="W79">
+        <v>-167.05799999999999</v>
+      </c>
+      <c r="X79">
+        <v>-175.268</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>9.8130000000000006</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>-909.38400000000001</v>
+      </c>
+      <c r="D80">
+        <v>1216.5029999999999</v>
+      </c>
+      <c r="E80">
+        <v>943.35400000000004</v>
+      </c>
+      <c r="F80">
+        <v>278.21800000000002</v>
+      </c>
+      <c r="G80">
+        <v>4597.3909999999996</v>
+      </c>
+      <c r="H80">
+        <v>35221.671000000002</v>
+      </c>
+      <c r="I80">
+        <v>1281.1659999999999</v>
+      </c>
+      <c r="J80">
+        <v>5703.1409999999996</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>2154.3809999999999</v>
+      </c>
+      <c r="O80">
+        <v>14834.114</v>
+      </c>
+      <c r="P80">
+        <v>5976.9040000000005</v>
+      </c>
+      <c r="Q80">
+        <v>-490.351</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>20387.557000000001</v>
+      </c>
+      <c r="U80">
+        <v>2416.5010000000002</v>
+      </c>
+      <c r="V80">
+        <v>88.073999999999998</v>
+      </c>
+      <c r="W80">
+        <v>-217.042</v>
+      </c>
+      <c r="X80">
+        <v>267.49700000000001</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>-909.38400000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>-42.466999999999999</v>
+      </c>
+      <c r="D81">
+        <v>2320.4380000000001</v>
+      </c>
+      <c r="E81">
+        <v>1134.346</v>
+      </c>
+      <c r="F81">
+        <v>1276.567</v>
+      </c>
+      <c r="G81">
+        <v>5095.0569999999998</v>
+      </c>
+      <c r="H81">
+        <v>35074.017999999996</v>
+      </c>
+      <c r="I81">
+        <v>1245.029</v>
+      </c>
+      <c r="J81">
+        <v>4949.902</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>3020.0419999999999</v>
+      </c>
+      <c r="O81">
+        <v>14925.691999999999</v>
+      </c>
+      <c r="P81">
+        <v>5976.09</v>
+      </c>
+      <c r="Q81">
+        <v>649.05499999999995</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>20148.326000000001</v>
+      </c>
+      <c r="U81">
+        <v>3065.556</v>
+      </c>
+      <c r="V81">
+        <v>1213.5530000000001</v>
+      </c>
+      <c r="W81">
+        <v>-217.142</v>
+      </c>
+      <c r="X81">
+        <v>-231.77</v>
+      </c>
+      <c r="Y81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>-42.466999999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>337.46600000000001</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>2901.7939999999999</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>1522.2560000000001</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>1704.077</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>5862.1679999999997</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>35804.601000000002</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>1681.193</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>4854.3509999999997</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>3460.1039999999998</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>15502.714</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>6752.4939999999997</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>263.37200000000001</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>2900</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>20301.886999999999</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>3328.9279999999999</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>1121.2380000000001</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-219.58099999999999</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-219.48400000000001</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>822</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
         <v>337.46600000000001</v>
       </c>
     </row>
